--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
   <si>
     <t>League</t>
   </si>
@@ -229,6 +229,9 @@
     <t>02:00:00</t>
   </si>
   <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
     <t>03:50:00</t>
   </si>
   <si>
@@ -259,6 +262,21 @@
     <t>Kofu</t>
   </si>
   <si>
+    <t>Yokohama FC</t>
+  </si>
+  <si>
+    <t>Oita</t>
+  </si>
+  <si>
+    <t>Sendai</t>
+  </si>
+  <si>
+    <t>Okayama</t>
+  </si>
+  <si>
+    <t>Ehime</t>
+  </si>
+  <si>
     <t>Tokushima</t>
   </si>
   <si>
@@ -292,6 +310,21 @@
     <t>Iwaki SC</t>
   </si>
   <si>
+    <t>Thespakusatsu Gunma</t>
+  </si>
+  <si>
+    <t>Kagoshima Utd</t>
+  </si>
+  <si>
+    <t>Kumamoto</t>
+  </si>
+  <si>
+    <t>Mito</t>
+  </si>
+  <si>
+    <t>Nagasaki</t>
+  </si>
+  <si>
     <t>Renofa Yamaguchi</t>
   </si>
   <si>
@@ -313,43 +346,79 @@
     <t>Lanus</t>
   </si>
   <si>
-    <t>33117059</t>
-  </si>
-  <si>
-    <t>33117065</t>
-  </si>
-  <si>
-    <t>33116669</t>
-  </si>
-  <si>
-    <t>33100574</t>
-  </si>
-  <si>
-    <t>1.226290651</t>
-  </si>
-  <si>
-    <t>1.226290561</t>
-  </si>
-  <si>
-    <t>1.226290741</t>
-  </si>
-  <si>
-    <t>1.226055820</t>
-  </si>
-  <si>
-    <t>1.226290696</t>
-  </si>
-  <si>
-    <t>1.226290606</t>
-  </si>
-  <si>
-    <t>1.226290786</t>
-  </si>
-  <si>
-    <t>1.226055830</t>
-  </si>
-  <si>
-    <t>1.226055829</t>
+    <t>33119336</t>
+  </si>
+  <si>
+    <t>33119338</t>
+  </si>
+  <si>
+    <t>33119343</t>
+  </si>
+  <si>
+    <t>33119330</t>
+  </si>
+  <si>
+    <t>33119331</t>
+  </si>
+  <si>
+    <t>1.226336701</t>
+  </si>
+  <si>
+    <t>1.226336611</t>
+  </si>
+  <si>
+    <t>1.226336521</t>
+  </si>
+  <si>
+    <t>1.226336792</t>
+  </si>
+  <si>
+    <t>1.226336882</t>
+  </si>
+  <si>
+    <t>1.226336746</t>
+  </si>
+  <si>
+    <t>1.226336656</t>
+  </si>
+  <si>
+    <t>1.226336566</t>
+  </si>
+  <si>
+    <t>1.226336837</t>
+  </si>
+  <si>
+    <t>1.226336927</t>
+  </si>
+  <si>
+    <t>1.226336785</t>
+  </si>
+  <si>
+    <t>1.226336695</t>
+  </si>
+  <si>
+    <t>1.226336605</t>
+  </si>
+  <si>
+    <t>1.226336876</t>
+  </si>
+  <si>
+    <t>1.226336966</t>
+  </si>
+  <si>
+    <t>1.226336710</t>
+  </si>
+  <si>
+    <t>1.226336620</t>
+  </si>
+  <si>
+    <t>1.226336530</t>
+  </si>
+  <si>
+    <t>1.226336801</t>
+  </si>
+  <si>
+    <t>1.226336891</t>
   </si>
 </sst>
 </file>
@@ -707,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,58 +990,58 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="G2">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="H2">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J2">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K2">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L2">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="N2">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="P2">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q2">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R2">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="S2">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="T2">
         <v>15</v>
       </c>
       <c r="U2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V2">
         <v>15.5</v>
@@ -981,13 +1050,13 @@
         <v>22</v>
       </c>
       <c r="X2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y2">
         <v>40</v>
       </c>
       <c r="Z2">
-        <v>1.01</v>
+        <v>75</v>
       </c>
       <c r="AA2">
         <v>1000</v>
@@ -999,19 +1068,19 @@
         <v>12</v>
       </c>
       <c r="AD2">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE2">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF2">
-        <v>3.2</v>
+        <v>16.5</v>
       </c>
       <c r="AG2">
         <v>20</v>
       </c>
       <c r="AH2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI2">
         <v>60</v>
@@ -1032,16 +1101,16 @@
         <v>15</v>
       </c>
       <c r="AO2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS2">
         <v>22</v>
@@ -1053,13 +1122,13 @@
         <v>19.5</v>
       </c>
       <c r="AV2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AW2">
         <v>34</v>
       </c>
       <c r="AX2">
-        <v>65</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -1068,7 +1137,7 @@
         <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BB2">
         <v>1.01</v>
@@ -1118,16 +1187,16 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G3">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
         <v>4.1</v>
@@ -1136,67 +1205,67 @@
         <v>5.3</v>
       </c>
       <c r="J3">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M3">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="N3">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="P3">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="R3">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S3">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="T3">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="V3">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="W3">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X3">
         <v>25</v>
       </c>
       <c r="Y3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z3">
-        <v>100</v>
+        <v>4.7</v>
       </c>
       <c r="AA3">
         <v>140</v>
       </c>
       <c r="AB3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AC3">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD3">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE3">
         <v>8</v>
@@ -1217,13 +1286,13 @@
         <v>9.6</v>
       </c>
       <c r="AK3">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL3">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM3">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN3">
         <v>25</v>
@@ -1232,13 +1301,13 @@
         <v>34</v>
       </c>
       <c r="AP3">
-        <v>110</v>
+        <v>7.6</v>
       </c>
       <c r="AQ3">
         <v>160</v>
       </c>
       <c r="AR3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS3">
         <v>34</v>
@@ -1250,22 +1319,22 @@
         <v>40</v>
       </c>
       <c r="AV3">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AX3">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AY3">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AZ3">
         <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB3">
         <v>1.01</v>
@@ -1315,166 +1384,166 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F4">
+        <v>2.76</v>
+      </c>
+      <c r="G4">
+        <v>2.92</v>
+      </c>
+      <c r="H4">
+        <v>2.58</v>
+      </c>
+      <c r="I4">
         <v>2.72</v>
       </c>
-      <c r="G4">
-        <v>3.05</v>
-      </c>
-      <c r="H4">
-        <v>2.54</v>
-      </c>
-      <c r="I4">
-        <v>2.84</v>
-      </c>
       <c r="J4">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K4">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>2.12</v>
       </c>
       <c r="N4">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O4">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="P4">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q4">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="R4">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="S4">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T4">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="U4">
         <v>980</v>
       </c>
       <c r="V4">
-        <v>2.28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W4">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="X4">
-        <v>1.87</v>
+        <v>14.5</v>
       </c>
       <c r="Y4">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z4">
-        <v>1.72</v>
+        <v>6.2</v>
       </c>
       <c r="AA4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB4">
-        <v>2.48</v>
+        <v>10</v>
       </c>
       <c r="AC4">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD4">
-        <v>2.04</v>
+        <v>7.4</v>
       </c>
       <c r="AE4">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AF4">
-        <v>2.46</v>
+        <v>11</v>
       </c>
       <c r="AG4">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH4">
-        <v>1.79</v>
+        <v>6.4</v>
       </c>
       <c r="AI4">
         <v>32</v>
       </c>
       <c r="AJ4">
-        <v>1.88</v>
+        <v>15.5</v>
       </c>
       <c r="AK4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4">
-        <v>1.8</v>
+        <v>11.5</v>
       </c>
       <c r="AM4">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AN4">
-        <v>2.04</v>
+        <v>15.5</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>1.79</v>
+        <v>3.5</v>
       </c>
       <c r="AS4">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AT4">
-        <v>1.79</v>
+        <v>6.4</v>
       </c>
       <c r="AU4">
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>1.79</v>
+        <v>3.8</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="AY4">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AZ4">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="BA4">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="BB4">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="BC4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD4">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="BE4">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="BF4">
         <v>33114092</v>
@@ -1512,25 +1581,25 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F5">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J5">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K5">
         <v>4.2</v>
@@ -1539,25 +1608,25 @@
         <v>1.92</v>
       </c>
       <c r="M5">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N5">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O5">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P5">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q5">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T5">
         <v>11.5</v>
@@ -1566,58 +1635,58 @@
         <v>17.5</v>
       </c>
       <c r="V5">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W5">
         <v>18</v>
       </c>
       <c r="X5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y5">
         <v>34</v>
       </c>
       <c r="Z5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB5">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE5">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG5">
         <v>19.5</v>
       </c>
       <c r="AH5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5">
         <v>11</v>
       </c>
       <c r="AK5">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL5">
         <v>9</v>
       </c>
       <c r="AM5">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN5">
         <v>15</v>
@@ -1626,16 +1695,16 @@
         <v>23</v>
       </c>
       <c r="AP5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AQ5">
         <v>70</v>
       </c>
       <c r="AR5">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AS5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AT5">
         <v>18</v>
@@ -1644,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="AV5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW5">
         <v>46</v>
@@ -1659,13 +1728,13 @@
         <v>1.01</v>
       </c>
       <c r="BA5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB5">
         <v>1.01</v>
       </c>
       <c r="BC5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BD5">
         <v>18.5</v>
@@ -1706,1172 +1775,1172 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>2.64</v>
+        <v>1.55</v>
       </c>
       <c r="G6">
-        <v>2.98</v>
+        <v>1.62</v>
       </c>
       <c r="H6">
-        <v>2.74</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="K6">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="L6">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="M6">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="N6">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="O6">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="P6">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="Q6">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="R6">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="S6">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="T6">
-        <v>1.49</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="W6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="X6">
-        <v>2.46</v>
+        <v>6.6</v>
       </c>
       <c r="Y6">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="Z6">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="AA6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB6">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC6">
+        <v>7.2</v>
+      </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
+      <c r="AE6">
         <v>10.5</v>
       </c>
-      <c r="AD6">
-        <v>3</v>
-      </c>
-      <c r="AE6">
-        <v>7.6</v>
-      </c>
       <c r="AF6">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG6">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AH6">
         <v>6.8</v>
       </c>
       <c r="AI6">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ6">
-        <v>2.84</v>
+        <v>6.6</v>
       </c>
       <c r="AK6">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AL6">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="AM6">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN6">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AO6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AP6">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ6">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AR6">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="AS6">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AT6">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="AU6">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV6">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="AW6">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX6">
+        <v>7</v>
+      </c>
+      <c r="AY6">
+        <v>240</v>
+      </c>
+      <c r="AZ6">
+        <v>4.5</v>
+      </c>
+      <c r="BA6">
+        <v>12</v>
+      </c>
+      <c r="BB6">
+        <v>7</v>
+      </c>
+      <c r="BC6">
+        <v>250</v>
+      </c>
+      <c r="BD6">
         <v>7.2</v>
-      </c>
-      <c r="AY6">
-        <v>1000</v>
-      </c>
-      <c r="AZ6">
-        <v>1.01</v>
-      </c>
-      <c r="BA6">
-        <v>1000</v>
-      </c>
-      <c r="BB6">
-        <v>1.01</v>
-      </c>
-      <c r="BC6">
-        <v>1000</v>
-      </c>
-      <c r="BD6">
-        <v>44</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6">
-        <v>33116459</v>
+      <c r="BF6" t="s">
+        <v>110</v>
       </c>
       <c r="BG6">
-        <v>5026012</v>
+        <v>2319612</v>
       </c>
       <c r="BH6">
-        <v>4233875</v>
+        <v>7078090</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6">
-        <v>1.226277733</v>
-      </c>
-      <c r="BK6">
-        <v>1.226277778</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+      <c r="BJ6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F7">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="G7">
-        <v>3.85</v>
+        <v>2.42</v>
       </c>
       <c r="H7">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="J7">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L7">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="O7">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>33114733</v>
+        <v>1000</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>111</v>
       </c>
       <c r="BG7">
-        <v>4231683</v>
+        <v>441089</v>
       </c>
       <c r="BH7">
-        <v>219596</v>
+        <v>10428848</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7">
-        <v>1.22624847</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+      <c r="BJ7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F8">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="G8">
-        <v>980</v>
+        <v>2.3</v>
       </c>
       <c r="H8">
-        <v>1.63</v>
+        <v>3.45</v>
       </c>
       <c r="I8">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
-        <v>1.78</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L8">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="M8">
-        <v>990</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="O8">
-        <v>6.6</v>
+        <v>2.16</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="BG8">
-        <v>1067928</v>
+        <v>442179</v>
       </c>
       <c r="BH8">
-        <v>6161547</v>
+        <v>5021204</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="BK8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F9">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
       <c r="G9">
-        <v>2.94</v>
+        <v>1.82</v>
       </c>
       <c r="H9">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="I9">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="J9">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="K9">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L9">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="M9">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="N9">
-        <v>2.84</v>
+        <v>2.14</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T9">
-        <v>2.92</v>
+        <v>8.6</v>
       </c>
       <c r="U9">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="V9">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="W9">
+        <v>17</v>
+      </c>
+      <c r="X9">
+        <v>6.2</v>
+      </c>
+      <c r="Y9">
+        <v>55</v>
+      </c>
+      <c r="Z9">
+        <v>6.6</v>
+      </c>
+      <c r="AA9">
+        <v>190</v>
+      </c>
+      <c r="AB9">
+        <v>6.8</v>
+      </c>
+      <c r="AC9">
+        <v>7.6</v>
+      </c>
+      <c r="AD9">
+        <v>7.6</v>
+      </c>
+      <c r="AE9">
+        <v>8.6</v>
+      </c>
+      <c r="AF9">
+        <v>20</v>
+      </c>
+      <c r="AG9">
+        <v>28</v>
+      </c>
+      <c r="AH9">
+        <v>6.4</v>
+      </c>
+      <c r="AI9">
+        <v>110</v>
+      </c>
+      <c r="AJ9">
+        <v>8.6</v>
+      </c>
+      <c r="AK9">
+        <v>12</v>
+      </c>
+      <c r="AL9">
+        <v>9.4</v>
+      </c>
+      <c r="AM9">
         <v>11</v>
       </c>
-      <c r="X9">
-        <v>15.5</v>
-      </c>
-      <c r="Y9">
-        <v>980</v>
-      </c>
-      <c r="Z9">
-        <v>4.5</v>
-      </c>
-      <c r="AA9">
-        <v>980</v>
-      </c>
-      <c r="AB9">
-        <v>5.6</v>
-      </c>
-      <c r="AC9">
-        <v>9</v>
-      </c>
-      <c r="AD9">
-        <v>5.8</v>
-      </c>
-      <c r="AE9">
-        <v>8.4</v>
-      </c>
-      <c r="AF9">
-        <v>12</v>
-      </c>
-      <c r="AG9">
-        <v>980</v>
-      </c>
-      <c r="AH9">
-        <v>4.5</v>
-      </c>
-      <c r="AI9">
-        <v>980</v>
-      </c>
-      <c r="AJ9">
-        <v>3.8</v>
-      </c>
-      <c r="AK9">
-        <v>18</v>
-      </c>
-      <c r="AL9">
-        <v>10</v>
-      </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>17</v>
-      </c>
-      <c r="AN9">
-        <v>4.2</v>
       </c>
       <c r="AO9">
         <v>980</v>
       </c>
       <c r="AP9">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ9">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AR9">
-        <v>4.4</v>
+        <v>16</v>
       </c>
       <c r="AS9">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AT9">
-        <v>4.4</v>
+        <v>15</v>
       </c>
       <c r="AU9">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AV9">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="AW9">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AX9">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="AY9">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AZ9">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="BA9">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="BB9">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="BC9">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="BD9">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9">
-        <v>33100572</v>
+      <c r="BF9" t="s">
+        <v>113</v>
       </c>
       <c r="BG9">
-        <v>194503</v>
+        <v>5561025</v>
       </c>
       <c r="BH9">
-        <v>1551296</v>
+        <v>3455677</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9">
-        <v>1.226055932</v>
-      </c>
-      <c r="BK9">
-        <v>1.226055942</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>1.226055941</v>
+      <c r="BJ9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F10">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="G10">
-        <v>480</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I10">
-        <v>870</v>
+        <v>2.46</v>
       </c>
       <c r="J10">
-        <v>1.21</v>
+        <v>3.4</v>
       </c>
       <c r="K10">
-        <v>330</v>
+        <v>3.8</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.96</v>
       </c>
       <c r="M10">
-        <v>990</v>
+        <v>2.18</v>
       </c>
       <c r="N10">
-        <v>1.1</v>
+        <v>1.86</v>
       </c>
       <c r="O10">
-        <v>6.6</v>
+        <v>2.04</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="BF10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="BG10">
-        <v>7005170</v>
+        <v>3455675</v>
       </c>
       <c r="BH10">
-        <v>13749040</v>
+        <v>7081211</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="BK10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F11">
-        <v>1.49</v>
+        <v>2.72</v>
       </c>
       <c r="G11">
-        <v>1.73</v>
+        <v>2.84</v>
       </c>
       <c r="H11">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="I11">
+        <v>3.05</v>
+      </c>
+      <c r="J11">
+        <v>3.1</v>
+      </c>
+      <c r="K11">
+        <v>3.3</v>
+      </c>
+      <c r="L11">
+        <v>1.68</v>
+      </c>
+      <c r="M11">
+        <v>1.77</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>2.46</v>
+      </c>
+      <c r="P11">
+        <v>1.95</v>
+      </c>
+      <c r="Q11">
+        <v>2.08</v>
+      </c>
+      <c r="R11">
+        <v>1.93</v>
+      </c>
+      <c r="S11">
+        <v>2.06</v>
+      </c>
+      <c r="T11">
+        <v>8.4</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+      <c r="V11">
         <v>8.199999999999999</v>
       </c>
-      <c r="J11">
-        <v>4.1</v>
-      </c>
-      <c r="K11">
-        <v>6.6</v>
-      </c>
-      <c r="L11">
-        <v>2.02</v>
-      </c>
-      <c r="M11">
-        <v>2.76</v>
-      </c>
-      <c r="N11">
-        <v>1.56</v>
-      </c>
-      <c r="O11">
-        <v>1.97</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>101</v>
+        <v>1000</v>
+      </c>
+      <c r="BF11">
+        <v>33116459</v>
       </c>
       <c r="BG11">
-        <v>897347</v>
+        <v>5026012</v>
       </c>
       <c r="BH11">
-        <v>330234</v>
+        <v>4233875</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>109</v>
+      <c r="BJ11">
+        <v>1.226277733</v>
+      </c>
+      <c r="BK11">
+        <v>1.226277778</v>
       </c>
       <c r="BL11">
         <v>0</v>
@@ -2882,199 +2951,1184 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F12">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H12">
-        <v>2.82</v>
+        <v>2.04</v>
       </c>
       <c r="I12">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="J12">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="M12">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="N12">
-        <v>2.46</v>
+        <v>1.94</v>
       </c>
       <c r="O12">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T12">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="U12">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="V12">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y12">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z12">
-        <v>6.8</v>
+        <v>22</v>
       </c>
       <c r="AA12">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AB12">
-        <v>4.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC12">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AD12">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AE12">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF12">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG12">
         <v>11</v>
       </c>
-      <c r="AG12">
-        <v>980</v>
-      </c>
       <c r="AH12">
-        <v>6.4</v>
+        <v>19</v>
       </c>
       <c r="AI12">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AJ12">
-        <v>5.6</v>
+        <v>21</v>
       </c>
       <c r="AK12">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL12">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM12">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AN12">
-        <v>5.9</v>
+        <v>16</v>
       </c>
       <c r="AO12">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AP12">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AQ12">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AR12">
-        <v>6.8</v>
+        <v>55</v>
       </c>
       <c r="AS12">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AT12">
-        <v>6.6</v>
+        <v>36</v>
       </c>
       <c r="AU12">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AV12">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="AW12">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX12">
-        <v>7.2</v>
+        <v>80</v>
       </c>
       <c r="AY12">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AZ12">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="BA12">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB12">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="BC12">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="BD12">
-        <v>6.8</v>
+        <v>40</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>102</v>
+      <c r="BF12">
+        <v>33114733</v>
       </c>
       <c r="BG12">
-        <v>1496989</v>
+        <v>4231683</v>
       </c>
       <c r="BH12">
-        <v>194513</v>
+        <v>219596</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BJ12">
+        <v>1.22624847</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>1.04</v>
+      </c>
+      <c r="G13">
+        <v>980</v>
+      </c>
+      <c r="H13">
+        <v>2.06</v>
+      </c>
+      <c r="I13">
+        <v>980</v>
+      </c>
+      <c r="J13">
+        <v>2.36</v>
+      </c>
+      <c r="K13">
+        <v>980</v>
+      </c>
+      <c r="L13">
+        <v>1.27</v>
+      </c>
+      <c r="M13">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>1.1</v>
+      </c>
+      <c r="O13">
+        <v>4.6</v>
+      </c>
+      <c r="P13">
+        <v>1.1</v>
+      </c>
+      <c r="Q13">
+        <v>980</v>
+      </c>
+      <c r="R13">
+        <v>1.1</v>
+      </c>
+      <c r="S13">
+        <v>980</v>
+      </c>
+      <c r="T13">
+        <v>1.49</v>
+      </c>
+      <c r="U13">
+        <v>1000</v>
+      </c>
+      <c r="V13">
+        <v>2.36</v>
+      </c>
+      <c r="W13">
+        <v>1000</v>
+      </c>
+      <c r="X13">
+        <v>2.28</v>
+      </c>
+      <c r="Y13">
+        <v>1000</v>
+      </c>
+      <c r="Z13">
+        <v>2.9</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
+        <v>2.72</v>
+      </c>
+      <c r="AC13">
+        <v>1000</v>
+      </c>
+      <c r="AD13">
+        <v>2.7</v>
+      </c>
+      <c r="AE13">
+        <v>1000</v>
+      </c>
+      <c r="AF13">
+        <v>3.65</v>
+      </c>
+      <c r="AG13">
+        <v>1000</v>
+      </c>
+      <c r="AH13">
+        <v>5.1</v>
+      </c>
+      <c r="AI13">
+        <v>1000</v>
+      </c>
+      <c r="AJ13">
+        <v>2.82</v>
+      </c>
+      <c r="AK13">
+        <v>1000</v>
+      </c>
+      <c r="AL13">
+        <v>4.9</v>
+      </c>
+      <c r="AM13">
+        <v>1000</v>
+      </c>
+      <c r="AN13">
+        <v>5.6</v>
+      </c>
+      <c r="AO13">
+        <v>1000</v>
+      </c>
+      <c r="AP13">
+        <v>16</v>
+      </c>
+      <c r="AQ13">
+        <v>1000</v>
+      </c>
+      <c r="AR13">
+        <v>4.3</v>
+      </c>
+      <c r="AS13">
+        <v>1000</v>
+      </c>
+      <c r="AT13">
+        <v>8</v>
+      </c>
+      <c r="AU13">
+        <v>1000</v>
+      </c>
+      <c r="AV13">
+        <v>8.4</v>
+      </c>
+      <c r="AW13">
+        <v>1000</v>
+      </c>
+      <c r="AX13">
+        <v>8.4</v>
+      </c>
+      <c r="AY13">
+        <v>1000</v>
+      </c>
+      <c r="AZ13">
+        <v>1.01</v>
+      </c>
+      <c r="BA13">
+        <v>1000</v>
+      </c>
+      <c r="BB13">
+        <v>1.01</v>
+      </c>
+      <c r="BC13">
+        <v>1000</v>
+      </c>
+      <c r="BD13">
+        <v>44</v>
+      </c>
+      <c r="BE13">
+        <v>1000</v>
+      </c>
+      <c r="BF13">
+        <v>33117059</v>
+      </c>
+      <c r="BG13">
+        <v>1067928</v>
+      </c>
+      <c r="BH13">
+        <v>6161547</v>
+      </c>
+      <c r="BI13">
+        <v>58805</v>
+      </c>
+      <c r="BJ13">
+        <v>1.226290651</v>
+      </c>
+      <c r="BK13">
+        <v>1.226290696</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="BK12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>111</v>
+      <c r="F14">
+        <v>2.66</v>
+      </c>
+      <c r="G14">
+        <v>3.05</v>
+      </c>
+      <c r="H14">
+        <v>3.15</v>
+      </c>
+      <c r="I14">
+        <v>3.55</v>
+      </c>
+      <c r="J14">
+        <v>2.86</v>
+      </c>
+      <c r="K14">
+        <v>2.96</v>
+      </c>
+      <c r="L14">
+        <v>1.44</v>
+      </c>
+      <c r="M14">
+        <v>1.56</v>
+      </c>
+      <c r="N14">
+        <v>2.78</v>
+      </c>
+      <c r="O14">
+        <v>3.3</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>6.4</v>
+      </c>
+      <c r="U14">
+        <v>8.4</v>
+      </c>
+      <c r="V14">
+        <v>6.4</v>
+      </c>
+      <c r="W14">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>980</v>
+      </c>
+      <c r="Z14">
+        <v>4.7</v>
+      </c>
+      <c r="AA14">
+        <v>980</v>
+      </c>
+      <c r="AB14">
+        <v>6.8</v>
+      </c>
+      <c r="AC14">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14">
+        <v>5.7</v>
+      </c>
+      <c r="AE14">
+        <v>8</v>
+      </c>
+      <c r="AF14">
+        <v>11.5</v>
+      </c>
+      <c r="AG14">
+        <v>18</v>
+      </c>
+      <c r="AH14">
+        <v>4.7</v>
+      </c>
+      <c r="AI14">
+        <v>980</v>
+      </c>
+      <c r="AJ14">
+        <v>12</v>
+      </c>
+      <c r="AK14">
+        <v>980</v>
+      </c>
+      <c r="AL14">
+        <v>10.5</v>
+      </c>
+      <c r="AM14">
+        <v>17</v>
+      </c>
+      <c r="AN14">
+        <v>19</v>
+      </c>
+      <c r="AO14">
+        <v>980</v>
+      </c>
+      <c r="AP14">
+        <v>4.8</v>
+      </c>
+      <c r="AQ14">
+        <v>980</v>
+      </c>
+      <c r="AR14">
+        <v>4.6</v>
+      </c>
+      <c r="AS14">
+        <v>980</v>
+      </c>
+      <c r="AT14">
+        <v>4.6</v>
+      </c>
+      <c r="AU14">
+        <v>980</v>
+      </c>
+      <c r="AV14">
+        <v>4.8</v>
+      </c>
+      <c r="AW14">
+        <v>980</v>
+      </c>
+      <c r="AX14">
+        <v>5</v>
+      </c>
+      <c r="AY14">
+        <v>1000</v>
+      </c>
+      <c r="AZ14">
+        <v>4.7</v>
+      </c>
+      <c r="BA14">
+        <v>980</v>
+      </c>
+      <c r="BB14">
+        <v>4.8</v>
+      </c>
+      <c r="BC14">
+        <v>980</v>
+      </c>
+      <c r="BD14">
+        <v>5</v>
+      </c>
+      <c r="BE14">
+        <v>1000</v>
+      </c>
+      <c r="BF14">
+        <v>33100572</v>
+      </c>
+      <c r="BG14">
+        <v>194503</v>
+      </c>
+      <c r="BH14">
+        <v>1551296</v>
+      </c>
+      <c r="BI14">
+        <v>58805</v>
+      </c>
+      <c r="BJ14">
+        <v>1.226055932</v>
+      </c>
+      <c r="BK14">
+        <v>1.226055942</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>1.226055941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15">
+        <v>1.76</v>
+      </c>
+      <c r="G15">
+        <v>480</v>
+      </c>
+      <c r="H15">
+        <v>1.04</v>
+      </c>
+      <c r="I15">
+        <v>870</v>
+      </c>
+      <c r="J15">
+        <v>1.21</v>
+      </c>
+      <c r="K15">
+        <v>330</v>
+      </c>
+      <c r="L15">
+        <v>1.27</v>
+      </c>
+      <c r="M15">
+        <v>990</v>
+      </c>
+      <c r="N15">
+        <v>1.1</v>
+      </c>
+      <c r="O15">
+        <v>4.6</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>33117065</v>
+      </c>
+      <c r="BG15">
+        <v>7005170</v>
+      </c>
+      <c r="BH15">
+        <v>13749040</v>
+      </c>
+      <c r="BI15">
+        <v>58805</v>
+      </c>
+      <c r="BJ15">
+        <v>1.226290561</v>
+      </c>
+      <c r="BK15">
+        <v>1.226290606</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
+      <c r="G16">
+        <v>1.67</v>
+      </c>
+      <c r="H16">
+        <v>4.6</v>
+      </c>
+      <c r="I16">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J16">
+        <v>4.2</v>
+      </c>
+      <c r="K16">
+        <v>5.4</v>
+      </c>
+      <c r="L16">
+        <v>2.14</v>
+      </c>
+      <c r="M16">
+        <v>2.58</v>
+      </c>
+      <c r="N16">
+        <v>1.64</v>
+      </c>
+      <c r="O16">
+        <v>1.87</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>33116669</v>
+      </c>
+      <c r="BG16">
+        <v>897347</v>
+      </c>
+      <c r="BH16">
+        <v>330234</v>
+      </c>
+      <c r="BI16">
+        <v>58805</v>
+      </c>
+      <c r="BJ16">
+        <v>1.226290741</v>
+      </c>
+      <c r="BK16">
+        <v>1.226290786</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17">
+        <v>2.76</v>
+      </c>
+      <c r="G17">
+        <v>3.1</v>
+      </c>
+      <c r="H17">
+        <v>2.82</v>
+      </c>
+      <c r="I17">
+        <v>3.05</v>
+      </c>
+      <c r="J17">
+        <v>3.1</v>
+      </c>
+      <c r="K17">
+        <v>3.25</v>
+      </c>
+      <c r="L17">
+        <v>1.56</v>
+      </c>
+      <c r="M17">
+        <v>1.7</v>
+      </c>
+      <c r="N17">
+        <v>2.44</v>
+      </c>
+      <c r="O17">
+        <v>2.8</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>7.6</v>
+      </c>
+      <c r="U17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V17">
+        <v>7.4</v>
+      </c>
+      <c r="W17">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X17">
+        <v>5.4</v>
+      </c>
+      <c r="Y17">
+        <v>980</v>
+      </c>
+      <c r="Z17">
+        <v>6.6</v>
+      </c>
+      <c r="AA17">
+        <v>980</v>
+      </c>
+      <c r="AB17">
+        <v>7.8</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>6.2</v>
+      </c>
+      <c r="AE17">
+        <v>8</v>
+      </c>
+      <c r="AF17">
+        <v>11</v>
+      </c>
+      <c r="AG17">
+        <v>980</v>
+      </c>
+      <c r="AH17">
+        <v>6.4</v>
+      </c>
+      <c r="AI17">
+        <v>980</v>
+      </c>
+      <c r="AJ17">
+        <v>5.5</v>
+      </c>
+      <c r="AK17">
+        <v>980</v>
+      </c>
+      <c r="AL17">
+        <v>5.7</v>
+      </c>
+      <c r="AM17">
+        <v>980</v>
+      </c>
+      <c r="AN17">
+        <v>6</v>
+      </c>
+      <c r="AO17">
+        <v>980</v>
+      </c>
+      <c r="AP17">
+        <v>7</v>
+      </c>
+      <c r="AQ17">
+        <v>980</v>
+      </c>
+      <c r="AR17">
+        <v>6.8</v>
+      </c>
+      <c r="AS17">
+        <v>980</v>
+      </c>
+      <c r="AT17">
+        <v>6.6</v>
+      </c>
+      <c r="AU17">
+        <v>980</v>
+      </c>
+      <c r="AV17">
+        <v>7</v>
+      </c>
+      <c r="AW17">
+        <v>980</v>
+      </c>
+      <c r="AX17">
+        <v>7.4</v>
+      </c>
+      <c r="AY17">
+        <v>1000</v>
+      </c>
+      <c r="AZ17">
+        <v>6.6</v>
+      </c>
+      <c r="BA17">
+        <v>980</v>
+      </c>
+      <c r="BB17">
+        <v>6.6</v>
+      </c>
+      <c r="BC17">
+        <v>980</v>
+      </c>
+      <c r="BD17">
+        <v>7.8</v>
+      </c>
+      <c r="BE17">
+        <v>1000</v>
+      </c>
+      <c r="BF17">
+        <v>33100574</v>
+      </c>
+      <c r="BG17">
+        <v>1496989</v>
+      </c>
+      <c r="BH17">
+        <v>194513</v>
+      </c>
+      <c r="BI17">
+        <v>58805</v>
+      </c>
+      <c r="BJ17">
+        <v>1.22605582</v>
+      </c>
+      <c r="BK17">
+        <v>1.22605583</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>1.226055829</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>League</t>
   </si>
@@ -344,81 +344,6 @@
   </si>
   <si>
     <t>Lanus</t>
-  </si>
-  <si>
-    <t>33119336</t>
-  </si>
-  <si>
-    <t>33119338</t>
-  </si>
-  <si>
-    <t>33119343</t>
-  </si>
-  <si>
-    <t>33119330</t>
-  </si>
-  <si>
-    <t>33119331</t>
-  </si>
-  <si>
-    <t>1.226336701</t>
-  </si>
-  <si>
-    <t>1.226336611</t>
-  </si>
-  <si>
-    <t>1.226336521</t>
-  </si>
-  <si>
-    <t>1.226336792</t>
-  </si>
-  <si>
-    <t>1.226336882</t>
-  </si>
-  <si>
-    <t>1.226336746</t>
-  </si>
-  <si>
-    <t>1.226336656</t>
-  </si>
-  <si>
-    <t>1.226336566</t>
-  </si>
-  <si>
-    <t>1.226336837</t>
-  </si>
-  <si>
-    <t>1.226336927</t>
-  </si>
-  <si>
-    <t>1.226336785</t>
-  </si>
-  <si>
-    <t>1.226336695</t>
-  </si>
-  <si>
-    <t>1.226336605</t>
-  </si>
-  <si>
-    <t>1.226336876</t>
-  </si>
-  <si>
-    <t>1.226336966</t>
-  </si>
-  <si>
-    <t>1.226336710</t>
-  </si>
-  <si>
-    <t>1.226336620</t>
-  </si>
-  <si>
-    <t>1.226336530</t>
-  </si>
-  <si>
-    <t>1.226336801</t>
-  </si>
-  <si>
-    <t>1.226336891</t>
   </si>
 </sst>
 </file>
@@ -1011,19 +936,19 @@
         <v>3.9</v>
       </c>
       <c r="K2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L2">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M2">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="N2">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="O2">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P2">
         <v>1.71</v>
@@ -1038,7 +963,7 @@
         <v>2.42</v>
       </c>
       <c r="T2">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="U2">
         <v>20</v>
@@ -1050,13 +975,13 @@
         <v>22</v>
       </c>
       <c r="X2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="Y2">
         <v>40</v>
       </c>
       <c r="Z2">
-        <v>75</v>
+        <v>2.82</v>
       </c>
       <c r="AA2">
         <v>1000</v>
@@ -1074,13 +999,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AF2">
-        <v>16.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG2">
         <v>20</v>
       </c>
       <c r="AH2">
-        <v>42</v>
+        <v>6.4</v>
       </c>
       <c r="AI2">
         <v>60</v>
@@ -1104,13 +1029,13 @@
         <v>20</v>
       </c>
       <c r="AP2">
-        <v>44</v>
+        <v>6.4</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="AS2">
         <v>22</v>
@@ -1122,31 +1047,31 @@
         <v>19.5</v>
       </c>
       <c r="AV2">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AW2">
         <v>34</v>
       </c>
       <c r="AX2">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="BA2">
         <v>10.5</v>
       </c>
       <c r="BB2">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="BC2">
         <v>55</v>
       </c>
       <c r="BD2">
-        <v>12</v>
+        <v>2.88</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1196,49 +1121,49 @@
         <v>2.02</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H3">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I3">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J3">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K3">
         <v>3.25</v>
       </c>
       <c r="L3">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M3">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="N3">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O3">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q3">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="R3">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S3">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="T3">
         <v>6.2</v>
       </c>
       <c r="U3">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="V3">
         <v>9</v>
@@ -1247,22 +1172,22 @@
         <v>12</v>
       </c>
       <c r="X3">
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="Y3">
         <v>36</v>
       </c>
       <c r="Z3">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="AA3">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AB3">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AC3">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AD3">
         <v>6.6</v>
@@ -1277,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="AH3">
-        <v>75</v>
+        <v>7.8</v>
       </c>
       <c r="AI3">
         <v>110</v>
@@ -1286,7 +1211,7 @@
         <v>9.6</v>
       </c>
       <c r="AK3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL3">
         <v>10</v>
@@ -1295,55 +1220,55 @@
         <v>14</v>
       </c>
       <c r="AN3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AO3">
         <v>34</v>
       </c>
       <c r="AP3">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AQ3">
         <v>160</v>
       </c>
       <c r="AR3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AS3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AT3">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="AU3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AV3">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="AW3">
         <v>90</v>
       </c>
       <c r="AX3">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY3">
         <v>330</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BA3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BC3">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="BD3">
-        <v>18.5</v>
+        <v>8.4</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1396,10 +1321,10 @@
         <v>2.92</v>
       </c>
       <c r="H4">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I4">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J4">
         <v>3.5</v>
@@ -1411,16 +1336,16 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O4">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q4">
         <v>1.82</v>
@@ -1429,13 +1354,13 @@
         <v>2.22</v>
       </c>
       <c r="S4">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T4">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="U4">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="V4">
         <v>9.800000000000001</v>
@@ -1498,13 +1423,13 @@
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AS4">
         <v>46</v>
@@ -1516,7 +1441,7 @@
         <v>1000</v>
       </c>
       <c r="AV4">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AW4">
         <v>1000</v>
@@ -1528,19 +1453,19 @@
         <v>95</v>
       </c>
       <c r="AZ4">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="BA4">
         <v>26</v>
       </c>
       <c r="BB4">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="BC4">
         <v>24</v>
       </c>
       <c r="BD4">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BE4">
         <v>790</v>
@@ -1587,25 +1512,25 @@
         <v>97</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G5">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H5">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="M5">
         <v>2.1</v>
@@ -1617,10 +1542,10 @@
         <v>2.1</v>
       </c>
       <c r="P5">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R5">
         <v>2</v>
@@ -1641,19 +1566,19 @@
         <v>18</v>
       </c>
       <c r="X5">
-        <v>23</v>
+        <v>4.3</v>
       </c>
       <c r="Y5">
         <v>34</v>
       </c>
       <c r="Z5">
-        <v>55</v>
+        <v>4.6</v>
       </c>
       <c r="AA5">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB5">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="AC5">
         <v>11</v>
@@ -1671,10 +1596,10 @@
         <v>19.5</v>
       </c>
       <c r="AH5">
-        <v>34</v>
+        <v>4.5</v>
       </c>
       <c r="AI5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ5">
         <v>11</v>
@@ -1695,13 +1620,13 @@
         <v>23</v>
       </c>
       <c r="AP5">
-        <v>40</v>
+        <v>4.5</v>
       </c>
       <c r="AQ5">
         <v>70</v>
       </c>
       <c r="AR5">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="AS5">
         <v>30</v>
@@ -1713,31 +1638,31 @@
         <v>27</v>
       </c>
       <c r="AV5">
-        <v>26</v>
+        <v>4.6</v>
       </c>
       <c r="AW5">
         <v>46</v>
       </c>
       <c r="AX5">
-        <v>70</v>
+        <v>4.7</v>
       </c>
       <c r="AY5">
         <v>130</v>
       </c>
       <c r="AZ5">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="BA5">
         <v>18</v>
       </c>
       <c r="BB5">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BC5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BD5">
-        <v>18.5</v>
+        <v>4.8</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1793,25 +1718,25 @@
         <v>6.8</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K6">
         <v>4.8</v>
       </c>
       <c r="L6">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M6">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="N6">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="O6">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P6">
         <v>2.26</v>
@@ -1939,8 +1864,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>110</v>
+      <c r="BF6">
+        <v>33119336</v>
       </c>
       <c r="BG6">
         <v>2319612</v>
@@ -1951,17 +1876,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>115</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>130</v>
+      <c r="BJ6">
+        <v>1.226336701</v>
+      </c>
+      <c r="BK6">
+        <v>1.226336746</v>
+      </c>
+      <c r="BL6">
+        <v>1.226336785</v>
+      </c>
+      <c r="BM6">
+        <v>1.22633671</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -1981,7 +1906,7 @@
         <v>99</v>
       </c>
       <c r="F7">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G7">
         <v>2.42</v>
@@ -1990,16 +1915,16 @@
         <v>3.4</v>
       </c>
       <c r="I7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J7">
         <v>3.35</v>
       </c>
       <c r="K7">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L7">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M7">
         <v>1.87</v>
@@ -2008,7 +1933,7 @@
         <v>2.16</v>
       </c>
       <c r="O7">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="P7">
         <v>1.87</v>
@@ -2026,13 +1951,13 @@
         <v>9.4</v>
       </c>
       <c r="U7">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="V7">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="W7">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X7">
         <v>18.5</v>
@@ -2041,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="Z7">
-        <v>44</v>
+        <v>6.2</v>
       </c>
       <c r="AA7">
         <v>80</v>
@@ -2050,22 +1975,22 @@
         <v>8</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE7">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF7">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="AG7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AI7">
         <v>55</v>
@@ -2074,13 +1999,13 @@
         <v>11.5</v>
       </c>
       <c r="AK7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM7">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AN7">
         <v>16</v>
@@ -2089,13 +2014,13 @@
         <v>24</v>
       </c>
       <c r="AP7">
-        <v>42</v>
+        <v>6.2</v>
       </c>
       <c r="AQ7">
         <v>75</v>
       </c>
       <c r="AR7">
-        <v>25</v>
+        <v>5.8</v>
       </c>
       <c r="AS7">
         <v>38</v>
@@ -2107,37 +2032,37 @@
         <v>34</v>
       </c>
       <c r="AV7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX7">
-        <v>85</v>
+        <v>6.4</v>
       </c>
       <c r="AY7">
         <v>150</v>
       </c>
       <c r="AZ7">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BA7">
         <v>27</v>
       </c>
       <c r="BB7">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BC7">
         <v>60</v>
       </c>
       <c r="BD7">
-        <v>36</v>
+        <v>6.6</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>111</v>
+      <c r="BF7">
+        <v>33119338</v>
       </c>
       <c r="BG7">
         <v>441089</v>
@@ -2148,17 +2073,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>116</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>131</v>
+      <c r="BJ7">
+        <v>1.226336611</v>
+      </c>
+      <c r="BK7">
+        <v>1.226336656</v>
+      </c>
+      <c r="BL7">
+        <v>1.226336695</v>
+      </c>
+      <c r="BM7">
+        <v>1.22633662</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2238,7 +2163,7 @@
         <v>28</v>
       </c>
       <c r="Z8">
-        <v>55</v>
+        <v>7.6</v>
       </c>
       <c r="AA8">
         <v>75</v>
@@ -2262,7 +2187,7 @@
         <v>16.5</v>
       </c>
       <c r="AH8">
-        <v>36</v>
+        <v>7.2</v>
       </c>
       <c r="AI8">
         <v>46</v>
@@ -2286,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="AP8">
-        <v>44</v>
+        <v>7.4</v>
       </c>
       <c r="AQ8">
         <v>60</v>
@@ -2304,37 +2229,37 @@
         <v>25</v>
       </c>
       <c r="AV8">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AW8">
         <v>42</v>
       </c>
       <c r="AX8">
-        <v>80</v>
+        <v>7.8</v>
       </c>
       <c r="AY8">
         <v>120</v>
       </c>
       <c r="AZ8">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BA8">
         <v>18</v>
       </c>
       <c r="BB8">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BC8">
         <v>46</v>
       </c>
       <c r="BD8">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>112</v>
+      <c r="BF8">
+        <v>33119343</v>
       </c>
       <c r="BG8">
         <v>442179</v>
@@ -2345,17 +2270,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>122</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>132</v>
+      <c r="BJ8">
+        <v>1.226336521</v>
+      </c>
+      <c r="BK8">
+        <v>1.226336566</v>
+      </c>
+      <c r="BL8">
+        <v>1.226336605</v>
+      </c>
+      <c r="BM8">
+        <v>1.22633653</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2375,7 +2300,7 @@
         <v>101</v>
       </c>
       <c r="F9">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G9">
         <v>1.82</v>
@@ -2384,7 +2309,7 @@
         <v>5.4</v>
       </c>
       <c r="I9">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J9">
         <v>3.6</v>
@@ -2405,19 +2330,19 @@
         <v>2.28</v>
       </c>
       <c r="P9">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q9">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R9">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S9">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T9">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U9">
         <v>12</v>
@@ -2432,19 +2357,19 @@
         <v>6.2</v>
       </c>
       <c r="Y9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA9">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB9">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AC9">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD9">
         <v>7.6</v>
@@ -2453,43 +2378,43 @@
         <v>8.6</v>
       </c>
       <c r="AF9">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AG9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH9">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI9">
         <v>110</v>
       </c>
       <c r="AJ9">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK9">
         <v>12</v>
       </c>
       <c r="AL9">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AM9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO9">
         <v>980</v>
       </c>
       <c r="AP9">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ9">
         <v>120</v>
       </c>
       <c r="AR9">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AS9">
         <v>23</v>
@@ -2501,37 +2426,37 @@
         <v>25</v>
       </c>
       <c r="AV9">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW9">
         <v>55</v>
       </c>
       <c r="AX9">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY9">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AZ9">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BA9">
         <v>16.5</v>
       </c>
       <c r="BB9">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BC9">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="BD9">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>113</v>
+      <c r="BF9">
+        <v>33119330</v>
       </c>
       <c r="BG9">
         <v>5561025</v>
@@ -2542,17 +2467,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>118</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>133</v>
+      <c r="BJ9">
+        <v>1.226336792</v>
+      </c>
+      <c r="BK9">
+        <v>1.226336837</v>
+      </c>
+      <c r="BL9">
+        <v>1.226336876</v>
+      </c>
+      <c r="BM9">
+        <v>1.226336801</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2572,25 +2497,25 @@
         <v>102</v>
       </c>
       <c r="F10">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H10">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I10">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K10">
         <v>3.8</v>
       </c>
       <c r="L10">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="M10">
         <v>2.18</v>
@@ -2599,7 +2524,7 @@
         <v>1.86</v>
       </c>
       <c r="O10">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="P10">
         <v>1.72</v>
@@ -2620,10 +2545,10 @@
         <v>17.5</v>
       </c>
       <c r="V10">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="W10">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="X10">
         <v>12.5</v>
@@ -2632,7 +2557,7 @@
         <v>18.5</v>
       </c>
       <c r="Z10">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="AA10">
         <v>38</v>
@@ -2644,10 +2569,10 @@
         <v>16.5</v>
       </c>
       <c r="AD10">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF10">
         <v>9.800000000000001</v>
@@ -2680,55 +2605,55 @@
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="AQ10">
         <v>46</v>
       </c>
       <c r="AR10">
-        <v>40</v>
+        <v>3.55</v>
       </c>
       <c r="AS10">
         <v>70</v>
       </c>
       <c r="AT10">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="AU10">
         <v>44</v>
       </c>
       <c r="AV10">
-        <v>34</v>
+        <v>3.75</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>65</v>
+        <v>3.6</v>
       </c>
       <c r="AY10">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AZ10">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="BA10">
         <v>38</v>
       </c>
       <c r="BB10">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="BC10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10">
-        <v>15.5</v>
+        <v>3.75</v>
       </c>
       <c r="BE10">
-        <v>960</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>114</v>
+        <v>910</v>
+      </c>
+      <c r="BF10">
+        <v>33119331</v>
       </c>
       <c r="BG10">
         <v>3455675</v>
@@ -2739,17 +2664,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>119</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>134</v>
+      <c r="BJ10">
+        <v>1.226336882</v>
+      </c>
+      <c r="BK10">
+        <v>1.226336927</v>
+      </c>
+      <c r="BL10">
+        <v>1.226336966</v>
+      </c>
+      <c r="BM10">
+        <v>1.226336891</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2829,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="Z11">
-        <v>38</v>
+        <v>6.4</v>
       </c>
       <c r="AA11">
         <v>55</v>
@@ -2853,7 +2778,7 @@
         <v>15</v>
       </c>
       <c r="AH11">
-        <v>30</v>
+        <v>6.2</v>
       </c>
       <c r="AI11">
         <v>42</v>
@@ -2877,49 +2802,49 @@
         <v>23</v>
       </c>
       <c r="AP11">
-        <v>46</v>
+        <v>6.6</v>
       </c>
       <c r="AQ11">
         <v>65</v>
       </c>
       <c r="AR11">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="AS11">
         <v>48</v>
       </c>
       <c r="AT11">
-        <v>27</v>
+        <v>6.2</v>
       </c>
       <c r="AU11">
         <v>40</v>
       </c>
       <c r="AV11">
-        <v>44</v>
+        <v>6.4</v>
       </c>
       <c r="AW11">
         <v>60</v>
       </c>
       <c r="AX11">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="AY11">
         <v>150</v>
       </c>
       <c r="AZ11">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BA11">
         <v>38</v>
       </c>
       <c r="BB11">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC11">
         <v>42</v>
       </c>
       <c r="BD11">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2966,22 +2891,22 @@
         <v>104</v>
       </c>
       <c r="F12">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G12">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H12">
         <v>2.04</v>
       </c>
       <c r="I12">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J12">
         <v>3.6</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12">
         <v>1.85</v>
@@ -3044,7 +2969,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF12">
-        <v>9.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="AG12">
         <v>11</v>
@@ -3062,13 +2987,13 @@
         <v>29</v>
       </c>
       <c r="AL12">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="AM12">
         <v>16.5</v>
       </c>
       <c r="AN12">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="AO12">
         <v>19</v>
@@ -3080,31 +3005,31 @@
         <v>42</v>
       </c>
       <c r="AR12">
-        <v>55</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS12">
         <v>85</v>
       </c>
       <c r="AT12">
-        <v>36</v>
+        <v>8.4</v>
       </c>
       <c r="AU12">
         <v>55</v>
       </c>
       <c r="AV12">
-        <v>44</v>
+        <v>8.6</v>
       </c>
       <c r="AW12">
         <v>65</v>
       </c>
       <c r="AX12">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="AY12">
         <v>110</v>
       </c>
       <c r="AZ12">
-        <v>32</v>
+        <v>8.4</v>
       </c>
       <c r="BA12">
         <v>55</v>
@@ -3116,7 +3041,7 @@
         <v>23</v>
       </c>
       <c r="BD12">
-        <v>40</v>
+        <v>5.9</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3163,157 +3088,157 @@
         <v>105</v>
       </c>
       <c r="F13">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="G13">
-        <v>980</v>
+        <v>2.66</v>
       </c>
       <c r="H13">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="J13">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="K13">
-        <v>980</v>
+        <v>350</v>
       </c>
       <c r="L13">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q13">
-        <v>980</v>
+        <v>2.74</v>
       </c>
       <c r="R13">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="S13">
-        <v>980</v>
+        <v>2.68</v>
       </c>
       <c r="T13">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="U13">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="V13">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="W13">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="X13">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="Y13">
         <v>1000</v>
       </c>
       <c r="Z13">
-        <v>2.9</v>
+        <v>1.24</v>
       </c>
       <c r="AA13">
         <v>1000</v>
       </c>
       <c r="AB13">
-        <v>2.72</v>
+        <v>1.24</v>
       </c>
       <c r="AC13">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD13">
-        <v>2.7</v>
+        <v>1.09</v>
       </c>
       <c r="AE13">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF13">
-        <v>3.65</v>
+        <v>1.24</v>
       </c>
       <c r="AG13">
         <v>1000</v>
       </c>
       <c r="AH13">
-        <v>5.1</v>
+        <v>1.24</v>
       </c>
       <c r="AI13">
         <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>2.82</v>
+        <v>1.24</v>
       </c>
       <c r="AK13">
         <v>1000</v>
       </c>
       <c r="AL13">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="AM13">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AN13">
-        <v>5.6</v>
+        <v>1.24</v>
       </c>
       <c r="AO13">
         <v>1000</v>
       </c>
       <c r="AP13">
-        <v>16</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
       </c>
       <c r="AR13">
-        <v>4.3</v>
+        <v>1.24</v>
       </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>8</v>
+        <v>1.24</v>
       </c>
       <c r="AU13">
         <v>1000</v>
       </c>
       <c r="AV13">
-        <v>8.4</v>
+        <v>1.24</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>8.4</v>
+        <v>1.24</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="BA13">
         <v>1000</v>
       </c>
       <c r="BB13">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="BC13">
         <v>1000</v>
       </c>
       <c r="BD13">
-        <v>44</v>
+        <v>1.24</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3360,157 +3285,157 @@
         <v>106</v>
       </c>
       <c r="F14">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="G14">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H14">
         <v>3.15</v>
       </c>
       <c r="I14">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K14">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L14">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M14">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="N14">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T14">
+        <v>6.6</v>
+      </c>
+      <c r="U14">
+        <v>7.8</v>
+      </c>
+      <c r="V14">
+        <v>7.6</v>
+      </c>
+      <c r="W14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X14">
+        <v>16.5</v>
+      </c>
+      <c r="Y14">
+        <v>18.5</v>
+      </c>
+      <c r="Z14">
+        <v>10.5</v>
+      </c>
+      <c r="AA14">
+        <v>65</v>
+      </c>
+      <c r="AB14">
+        <v>7</v>
+      </c>
+      <c r="AC14">
+        <v>8.4</v>
+      </c>
+      <c r="AD14">
         <v>6.4</v>
       </c>
-      <c r="U14">
-        <v>8.4</v>
-      </c>
-      <c r="V14">
-        <v>6.4</v>
-      </c>
-      <c r="W14">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X14">
-        <v>13</v>
-      </c>
-      <c r="Y14">
-        <v>980</v>
-      </c>
-      <c r="Z14">
-        <v>4.7</v>
-      </c>
-      <c r="AA14">
-        <v>980</v>
-      </c>
-      <c r="AB14">
-        <v>6.8</v>
-      </c>
-      <c r="AC14">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14">
-        <v>5.7</v>
-      </c>
       <c r="AE14">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AF14">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG14">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH14">
-        <v>4.7</v>
+        <v>30</v>
       </c>
       <c r="AI14">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AK14">
         <v>980</v>
       </c>
       <c r="AL14">
+        <v>12.5</v>
+      </c>
+      <c r="AM14">
+        <v>14.5</v>
+      </c>
+      <c r="AN14">
+        <v>22</v>
+      </c>
+      <c r="AO14">
+        <v>29</v>
+      </c>
+      <c r="AP14">
+        <v>11.5</v>
+      </c>
+      <c r="AQ14">
+        <v>110</v>
+      </c>
+      <c r="AR14">
+        <v>40</v>
+      </c>
+      <c r="AS14">
+        <v>55</v>
+      </c>
+      <c r="AT14">
+        <v>36</v>
+      </c>
+      <c r="AU14">
+        <v>50</v>
+      </c>
+      <c r="AV14">
+        <v>11</v>
+      </c>
+      <c r="AW14">
+        <v>95</v>
+      </c>
+      <c r="AX14">
+        <v>12</v>
+      </c>
+      <c r="AY14">
+        <v>980</v>
+      </c>
+      <c r="AZ14">
         <v>10.5</v>
       </c>
-      <c r="AM14">
-        <v>17</v>
-      </c>
-      <c r="AN14">
-        <v>19</v>
-      </c>
-      <c r="AO14">
-        <v>980</v>
-      </c>
-      <c r="AP14">
-        <v>4.8</v>
-      </c>
-      <c r="AQ14">
-        <v>980</v>
-      </c>
-      <c r="AR14">
-        <v>4.6</v>
-      </c>
-      <c r="AS14">
-        <v>980</v>
-      </c>
-      <c r="AT14">
-        <v>4.6</v>
-      </c>
-      <c r="AU14">
-        <v>980</v>
-      </c>
-      <c r="AV14">
-        <v>4.8</v>
-      </c>
-      <c r="AW14">
-        <v>980</v>
-      </c>
-      <c r="AX14">
-        <v>5</v>
-      </c>
-      <c r="AY14">
-        <v>1000</v>
-      </c>
-      <c r="AZ14">
-        <v>4.7</v>
-      </c>
       <c r="BA14">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="BB14">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="BC14">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="BD14">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -3557,7 +3482,7 @@
         <v>107</v>
       </c>
       <c r="F15">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="G15">
         <v>480</v>
@@ -3572,13 +3497,13 @@
         <v>1.21</v>
       </c>
       <c r="K15">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L15">
         <v>1.27</v>
       </c>
       <c r="M15">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1.1</v>
@@ -3587,130 +3512,130 @@
         <v>4.6</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF15">
         <v>33117065</v>
@@ -3754,160 +3679,160 @@
         <v>108</v>
       </c>
       <c r="F16">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G16">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H16">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J16">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K16">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L16">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="M16">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="N16">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O16">
         <v>1.87</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF16">
         <v>33116669</v>
@@ -3951,157 +3876,157 @@
         <v>109</v>
       </c>
       <c r="F17">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G17">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H17">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I17">
         <v>3.05</v>
       </c>
       <c r="J17">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K17">
         <v>3.25</v>
       </c>
       <c r="L17">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="M17">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N17">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T17">
         <v>7.6</v>
       </c>
       <c r="U17">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V17">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="W17">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X17">
-        <v>5.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y17">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z17">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AA17">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB17">
         <v>7.8</v>
       </c>
       <c r="AC17">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD17">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE17">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AF17">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG17">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH17">
-        <v>6.4</v>
+        <v>34</v>
       </c>
       <c r="AI17">
         <v>980</v>
       </c>
       <c r="AJ17">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AK17">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AL17">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="AM17">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AN17">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AO17">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AP17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ17">
         <v>980</v>
       </c>
       <c r="AR17">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="AS17">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AT17">
-        <v>6.6</v>
+        <v>32</v>
       </c>
       <c r="AU17">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AV17">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="AW17">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AX17">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AY17">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AZ17">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="BA17">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BB17">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="BC17">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="BD17">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="BE17">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="167">
   <si>
     <t>League</t>
   </si>
@@ -214,6 +214,12 @@
     <t>Japanese J League 2</t>
   </si>
   <si>
+    <t>Italian Serie D</t>
+  </si>
+  <si>
+    <t>Venezuelan Primera Division</t>
+  </si>
+  <si>
     <t>English National League</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>Argentinian Copa de la Liga Profesional</t>
   </si>
   <si>
+    <t>Bolivian Liga de Futbol Profesional</t>
+  </si>
+  <si>
     <t>2024-03-20</t>
   </si>
   <si>
@@ -235,21 +244,36 @@
     <t>03:50:00</t>
   </si>
   <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
     <t>16:45:00</t>
   </si>
   <si>
     <t>18:30:00</t>
   </si>
   <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
     <t>19:00:00</t>
   </si>
   <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
     <t>21:15:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Yamagata</t>
   </si>
   <si>
@@ -280,15 +304,30 @@
     <t>Tokushima</t>
   </si>
   <si>
+    <t>Virtus Ciserano Bergamo</t>
+  </si>
+  <si>
+    <t>Rayo Zuliano</t>
+  </si>
+  <si>
     <t>FC Halifax Town</t>
   </si>
   <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
     <t>Deportivo Cuenca</t>
   </si>
   <si>
+    <t>Caracas</t>
+  </si>
+  <si>
     <t>San Lorenzo</t>
   </si>
   <si>
+    <t>Aurora</t>
+  </si>
+  <si>
     <t>Univ Catolica (Ecu)</t>
   </si>
   <si>
@@ -298,6 +337,12 @@
     <t>Belgrano</t>
   </si>
   <si>
+    <t>Deportivo Tachira</t>
+  </si>
+  <si>
+    <t>Zamora FC</t>
+  </si>
+  <si>
     <t>Fujieda Myfc</t>
   </si>
   <si>
@@ -328,15 +373,30 @@
     <t>Renofa Yamaguchi</t>
   </si>
   <si>
+    <t>USD Caravaggio</t>
+  </si>
+  <si>
+    <t>CD Hermanos Colmenarez</t>
+  </si>
+  <si>
     <t>Chesterfield</t>
   </si>
   <si>
+    <t>Bromley</t>
+  </si>
+  <si>
     <t>Macara</t>
   </si>
   <si>
+    <t>Angostura FC</t>
+  </si>
+  <si>
     <t>Godoy Cruz</t>
   </si>
   <si>
+    <t>Royal Pari</t>
+  </si>
+  <si>
     <t>Barcelona (Ecu)</t>
   </si>
   <si>
@@ -344,6 +404,117 @@
   </si>
   <si>
     <t>Lanus</t>
+  </si>
+  <si>
+    <t>Monagas</t>
+  </si>
+  <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
+    <t>33122288</t>
+  </si>
+  <si>
+    <t>33121596</t>
+  </si>
+  <si>
+    <t>33122671</t>
+  </si>
+  <si>
+    <t>33121972</t>
+  </si>
+  <si>
+    <t>33121772</t>
+  </si>
+  <si>
+    <t>33122379</t>
+  </si>
+  <si>
+    <t>33122382</t>
+  </si>
+  <si>
+    <t>1.226389440</t>
+  </si>
+  <si>
+    <t>1.226378473</t>
+  </si>
+  <si>
+    <t>1.226394715</t>
+  </si>
+  <si>
+    <t>1.226383437</t>
+  </si>
+  <si>
+    <t>1.226381364</t>
+  </si>
+  <si>
+    <t>1.226391148</t>
+  </si>
+  <si>
+    <t>1.226391058</t>
+  </si>
+  <si>
+    <t>1.226389485</t>
+  </si>
+  <si>
+    <t>1.226378518</t>
+  </si>
+  <si>
+    <t>1.226394760</t>
+  </si>
+  <si>
+    <t>1.226383482</t>
+  </si>
+  <si>
+    <t>1.226381409</t>
+  </si>
+  <si>
+    <t>1.226391193</t>
+  </si>
+  <si>
+    <t>1.226391103</t>
+  </si>
+  <si>
+    <t>1.226389524</t>
+  </si>
+  <si>
+    <t>1.226378557</t>
+  </si>
+  <si>
+    <t>1.226394799</t>
+  </si>
+  <si>
+    <t>1.226383521</t>
+  </si>
+  <si>
+    <t>1.226381448</t>
+  </si>
+  <si>
+    <t>1.226391232</t>
+  </si>
+  <si>
+    <t>1.226391142</t>
+  </si>
+  <si>
+    <t>1.226389449</t>
+  </si>
+  <si>
+    <t>1.226378482</t>
+  </si>
+  <si>
+    <t>1.226394724</t>
+  </si>
+  <si>
+    <t>1.226383446</t>
+  </si>
+  <si>
+    <t>1.226381373</t>
+  </si>
+  <si>
+    <t>1.226391157</t>
+  </si>
+  <si>
+    <t>1.226391067</t>
   </si>
 </sst>
 </file>
@@ -701,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,112 +1080,112 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F2">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G2">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="J2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L2">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="M2">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="N2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P2">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q2">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R2">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="S2">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="T2">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="U2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="V2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="W2">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>6.4</v>
+      </c>
+      <c r="Y2">
+        <v>44</v>
+      </c>
+      <c r="Z2">
+        <v>7</v>
+      </c>
+      <c r="AA2">
+        <v>980</v>
+      </c>
+      <c r="AB2">
+        <v>8.4</v>
+      </c>
+      <c r="AC2">
+        <v>10.5</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>10.5</v>
+      </c>
+      <c r="AF2">
+        <v>17</v>
+      </c>
+      <c r="AG2">
         <v>22</v>
       </c>
-      <c r="X2">
-        <v>6</v>
-      </c>
-      <c r="Y2">
-        <v>40</v>
-      </c>
-      <c r="Z2">
-        <v>2.82</v>
-      </c>
-      <c r="AA2">
-        <v>1000</v>
-      </c>
-      <c r="AB2">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC2">
+      <c r="AH2">
+        <v>6.6</v>
+      </c>
+      <c r="AI2">
+        <v>980</v>
+      </c>
+      <c r="AJ2">
+        <v>9.4</v>
+      </c>
+      <c r="AK2">
         <v>12</v>
-      </c>
-      <c r="AD2">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF2">
-        <v>5.2</v>
-      </c>
-      <c r="AG2">
-        <v>20</v>
-      </c>
-      <c r="AH2">
-        <v>6.4</v>
-      </c>
-      <c r="AI2">
-        <v>60</v>
-      </c>
-      <c r="AJ2">
-        <v>10</v>
-      </c>
-      <c r="AK2">
-        <v>13.5</v>
       </c>
       <c r="AL2">
         <v>8.4</v>
@@ -1023,22 +1194,22 @@
         <v>11.5</v>
       </c>
       <c r="AN2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ2">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR2">
-        <v>5.4</v>
+        <v>15.5</v>
       </c>
       <c r="AS2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT2">
         <v>14.5</v>
@@ -1047,31 +1218,31 @@
         <v>19.5</v>
       </c>
       <c r="AV2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AW2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AX2">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="AY2">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ2">
-        <v>2.26</v>
+        <v>4.3</v>
       </c>
       <c r="BA2">
         <v>10.5</v>
       </c>
       <c r="BB2">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="BC2">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="BD2">
-        <v>2.88</v>
+        <v>7.2</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1106,19 +1277,19 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F3">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G3">
         <v>2.32</v>
@@ -1127,91 +1298,91 @@
         <v>4.4</v>
       </c>
       <c r="I3">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J3">
         <v>2.88</v>
       </c>
       <c r="K3">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M3">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="N3">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="P3">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="R3">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="S3">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="T3">
         <v>6.2</v>
       </c>
       <c r="U3">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="W3">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X3">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="Y3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AA3">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AB3">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD3">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE3">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AF3">
         <v>17.5</v>
       </c>
       <c r="AG3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH3">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI3">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ3">
         <v>9.6</v>
       </c>
       <c r="AK3">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL3">
         <v>10</v>
@@ -1220,55 +1391,55 @@
         <v>14</v>
       </c>
       <c r="AN3">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AO3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP3">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AQ3">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AR3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AS3">
         <v>32</v>
       </c>
       <c r="AT3">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AU3">
         <v>38</v>
       </c>
       <c r="AV3">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AW3">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AX3">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY3">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="AZ3">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="BA3">
         <v>38</v>
       </c>
       <c r="BB3">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="BC3">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="BD3">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1303,34 +1474,34 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F4">
+        <v>2.78</v>
+      </c>
+      <c r="G4">
+        <v>2.88</v>
+      </c>
+      <c r="H4">
+        <v>2.68</v>
+      </c>
+      <c r="I4">
         <v>2.76</v>
-      </c>
-      <c r="G4">
-        <v>2.92</v>
-      </c>
-      <c r="H4">
-        <v>2.62</v>
-      </c>
-      <c r="I4">
-        <v>2.78</v>
       </c>
       <c r="J4">
         <v>3.5</v>
       </c>
       <c r="K4">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -1339,136 +1510,136 @@
         <v>2.1</v>
       </c>
       <c r="N4">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q4">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R4">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="S4">
         <v>2.36</v>
       </c>
       <c r="T4">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="U4">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V4">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="W4">
+        <v>12.5</v>
+      </c>
+      <c r="X4">
+        <v>16</v>
+      </c>
+      <c r="Y4">
+        <v>20</v>
+      </c>
+      <c r="Z4">
+        <v>7.8</v>
+      </c>
+      <c r="AA4">
+        <v>44</v>
+      </c>
+      <c r="AB4">
+        <v>11</v>
+      </c>
+      <c r="AC4">
         <v>13</v>
       </c>
-      <c r="X4">
-        <v>14.5</v>
-      </c>
-      <c r="Y4">
-        <v>19.5</v>
-      </c>
-      <c r="Z4">
-        <v>6.2</v>
-      </c>
-      <c r="AA4">
-        <v>42</v>
-      </c>
-      <c r="AB4">
-        <v>10</v>
-      </c>
-      <c r="AC4">
-        <v>13.5</v>
-      </c>
       <c r="AD4">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE4">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF4">
         <v>11</v>
       </c>
       <c r="AG4">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH4">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="AI4">
         <v>32</v>
       </c>
       <c r="AJ4">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK4">
         <v>21</v>
       </c>
       <c r="AL4">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN4">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO4">
+        <v>19</v>
+      </c>
+      <c r="AP4">
+        <v>7.8</v>
+      </c>
+      <c r="AQ4">
+        <v>44</v>
+      </c>
+      <c r="AR4">
+        <v>7.8</v>
+      </c>
+      <c r="AS4">
+        <v>48</v>
+      </c>
+      <c r="AT4">
+        <v>24</v>
+      </c>
+      <c r="AU4">
+        <v>34</v>
+      </c>
+      <c r="AV4">
+        <v>7.8</v>
+      </c>
+      <c r="AW4">
+        <v>46</v>
+      </c>
+      <c r="AX4">
+        <v>8.4</v>
+      </c>
+      <c r="AY4">
         <v>980</v>
       </c>
-      <c r="AP4">
-        <v>4.8</v>
-      </c>
-      <c r="AQ4">
-        <v>1000</v>
-      </c>
-      <c r="AR4">
-        <v>3.55</v>
-      </c>
-      <c r="AS4">
-        <v>46</v>
-      </c>
-      <c r="AT4">
-        <v>6.4</v>
-      </c>
-      <c r="AU4">
-        <v>1000</v>
-      </c>
-      <c r="AV4">
-        <v>3.85</v>
-      </c>
-      <c r="AW4">
-        <v>1000</v>
-      </c>
-      <c r="AX4">
-        <v>3.3</v>
-      </c>
-      <c r="AY4">
-        <v>95</v>
-      </c>
       <c r="AZ4">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="BA4">
         <v>26</v>
       </c>
       <c r="BB4">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="BC4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="BE4">
-        <v>790</v>
+        <v>980</v>
       </c>
       <c r="BF4">
         <v>33114092</v>
@@ -1500,121 +1671,121 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="G5">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="H5">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J5">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L5">
+        <v>1.96</v>
+      </c>
+      <c r="M5">
+        <v>2.14</v>
+      </c>
+      <c r="N5">
+        <v>1.89</v>
+      </c>
+      <c r="O5">
+        <v>2.04</v>
+      </c>
+      <c r="P5">
+        <v>1.73</v>
+      </c>
+      <c r="Q5">
         <v>1.91</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>2.1</v>
       </c>
-      <c r="N5">
-        <v>1.9</v>
-      </c>
-      <c r="O5">
-        <v>2.1</v>
-      </c>
-      <c r="P5">
-        <v>1.72</v>
-      </c>
-      <c r="Q5">
-        <v>1.99</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
       <c r="S5">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T5">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U5">
         <v>17.5</v>
       </c>
       <c r="V5">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="W5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X5">
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="Y5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z5">
         <v>4.6</v>
       </c>
       <c r="AA5">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AB5">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5">
         <v>11</v>
       </c>
       <c r="AD5">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE5">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AF5">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG5">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH5">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AI5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5">
         <v>11</v>
       </c>
       <c r="AK5">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL5">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM5">
         <v>13</v>
       </c>
       <c r="AN5">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO5">
         <v>23</v>
@@ -1626,40 +1797,40 @@
         <v>70</v>
       </c>
       <c r="AR5">
-        <v>4.4</v>
+        <v>19</v>
       </c>
       <c r="AS5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT5">
         <v>18</v>
       </c>
       <c r="AU5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV5">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AW5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX5">
         <v>4.7</v>
       </c>
       <c r="AY5">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AZ5">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="BA5">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="BB5">
         <v>4.5</v>
       </c>
       <c r="BC5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BD5">
         <v>4.8</v>
@@ -1697,61 +1868,61 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>1.55</v>
       </c>
       <c r="G6">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L6">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="M6">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="N6">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="P6">
         <v>2.26</v>
       </c>
       <c r="Q6">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="R6">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S6">
         <v>1.79</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U6">
         <v>13.5</v>
@@ -1766,28 +1937,28 @@
         <v>6.6</v>
       </c>
       <c r="Y6">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="Z6">
         <v>7</v>
       </c>
       <c r="AA6">
-        <v>300</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AC6">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD6">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AE6">
         <v>10.5</v>
       </c>
       <c r="AF6">
-        <v>6.2</v>
+        <v>24</v>
       </c>
       <c r="AG6">
         <v>34</v>
@@ -1796,13 +1967,13 @@
         <v>6.8</v>
       </c>
       <c r="AI6">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AK6">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL6">
         <v>8.6</v>
@@ -1811,7 +1982,7 @@
         <v>11.5</v>
       </c>
       <c r="AN6">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="AO6">
         <v>32</v>
@@ -1820,10 +1991,10 @@
         <v>6.8</v>
       </c>
       <c r="AQ6">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AR6">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS6">
         <v>15.5</v>
@@ -1835,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="AV6">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AW6">
         <v>55</v>
@@ -1844,19 +2015,19 @@
         <v>7</v>
       </c>
       <c r="AY6">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AZ6">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BA6">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BB6">
         <v>7</v>
       </c>
       <c r="BC6">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="BD6">
         <v>7.2</v>
@@ -1894,118 +2065,118 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F7">
         <v>2.24</v>
       </c>
       <c r="G7">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H7">
+        <v>3.6</v>
+      </c>
+      <c r="I7">
+        <v>3.75</v>
+      </c>
+      <c r="J7">
         <v>3.4</v>
       </c>
-      <c r="I7">
-        <v>3.8</v>
-      </c>
-      <c r="J7">
-        <v>3.35</v>
-      </c>
       <c r="K7">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L7">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="M7">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N7">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="P7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q7">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R7">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S7">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T7">
         <v>9.4</v>
       </c>
       <c r="U7">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="V7">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W7">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X7">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z7">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AB7">
         <v>8</v>
       </c>
       <c r="AC7">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD7">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AE7">
         <v>8.199999999999999</v>
       </c>
       <c r="AF7">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="AG7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH7">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="AI7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ7">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL7">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AM7">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AN7">
         <v>16</v>
@@ -2014,49 +2185,49 @@
         <v>24</v>
       </c>
       <c r="AP7">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
         <v>75</v>
       </c>
       <c r="AR7">
-        <v>5.8</v>
+        <v>23</v>
       </c>
       <c r="AS7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AT7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AV7">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AW7">
         <v>55</v>
       </c>
       <c r="AX7">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="AY7">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AZ7">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="BA7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BB7">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="BC7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BD7">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2091,19 +2262,19 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F8">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G8">
         <v>2.3</v>
@@ -2115,82 +2286,82 @@
         <v>3.75</v>
       </c>
       <c r="J8">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K8">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L8">
         <v>1.87</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="N8">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="O8">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q8">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R8">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S8">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T8">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U8">
+        <v>13</v>
+      </c>
+      <c r="V8">
+        <v>12</v>
+      </c>
+      <c r="W8">
         <v>14.5</v>
       </c>
-      <c r="V8">
-        <v>11.5</v>
-      </c>
-      <c r="W8">
-        <v>15</v>
-      </c>
       <c r="X8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z8">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AA8">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AB8">
+        <v>8.4</v>
+      </c>
+      <c r="AC8">
+        <v>9.6</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
         <v>8</v>
-      </c>
-      <c r="AC8">
-        <v>10.5</v>
-      </c>
-      <c r="AD8">
-        <v>6.8</v>
-      </c>
-      <c r="AE8">
-        <v>8.4</v>
       </c>
       <c r="AF8">
         <v>12.5</v>
       </c>
       <c r="AG8">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH8">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AI8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ8">
         <v>10.5</v>
@@ -2199,61 +2370,61 @@
         <v>14.5</v>
       </c>
       <c r="AL8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM8">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN8">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO8">
         <v>21</v>
       </c>
       <c r="AP8">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AQ8">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AR8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AT8">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AU8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX8">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AY8">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AZ8">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="BA8">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="BB8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8">
         <v>46</v>
       </c>
       <c r="BD8">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2288,88 +2459,88 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G9">
         <v>1.82</v>
       </c>
       <c r="H9">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I9">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J9">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L9">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="M9">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O9">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="P9">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q9">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R9">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S9">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T9">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V9">
         <v>14.5</v>
       </c>
       <c r="W9">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X9">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Y9">
         <v>50</v>
       </c>
       <c r="Z9">
+        <v>7.8</v>
+      </c>
+      <c r="AA9">
+        <v>980</v>
+      </c>
+      <c r="AB9">
         <v>6.8</v>
       </c>
-      <c r="AA9">
-        <v>180</v>
-      </c>
-      <c r="AB9">
-        <v>5.8</v>
-      </c>
       <c r="AC9">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9">
         <v>7.6</v>
@@ -2378,40 +2549,40 @@
         <v>8.6</v>
       </c>
       <c r="AF9">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG9">
         <v>27</v>
       </c>
       <c r="AH9">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AI9">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ9">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL9">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AM9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN9">
         <v>20</v>
       </c>
       <c r="AO9">
+        <v>24</v>
+      </c>
+      <c r="AP9">
+        <v>7.6</v>
+      </c>
+      <c r="AQ9">
         <v>980</v>
-      </c>
-      <c r="AP9">
-        <v>6.8</v>
-      </c>
-      <c r="AQ9">
-        <v>120</v>
       </c>
       <c r="AR9">
         <v>16.5</v>
@@ -2420,37 +2591,37 @@
         <v>23</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AU9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV9">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AW9">
         <v>55</v>
       </c>
       <c r="AX9">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AY9">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AZ9">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BA9">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BB9">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BC9">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="BD9">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2485,28 +2656,28 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F10">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G10">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
         <v>2.28</v>
       </c>
       <c r="I10">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -2515,16 +2686,16 @@
         <v>3.8</v>
       </c>
       <c r="L10">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="M10">
         <v>2.18</v>
       </c>
       <c r="N10">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="O10">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P10">
         <v>1.72</v>
@@ -2545,19 +2716,19 @@
         <v>17.5</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W10">
         <v>12</v>
       </c>
       <c r="X10">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y10">
         <v>18.5</v>
       </c>
       <c r="Z10">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AA10">
         <v>38</v>
@@ -2566,91 +2737,91 @@
         <v>11</v>
       </c>
       <c r="AC10">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD10">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE10">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AF10">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG10">
         <v>14</v>
       </c>
       <c r="AH10">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI10">
         <v>30</v>
       </c>
       <c r="AJ10">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL10">
         <v>11.5</v>
       </c>
       <c r="AM10">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN10">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO10">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP10">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AQ10">
         <v>46</v>
       </c>
       <c r="AR10">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="AS10">
         <v>70</v>
       </c>
       <c r="AT10">
+        <v>4.7</v>
+      </c>
+      <c r="AU10">
+        <v>46</v>
+      </c>
+      <c r="AV10">
+        <v>4.7</v>
+      </c>
+      <c r="AW10">
+        <v>60</v>
+      </c>
+      <c r="AX10">
         <v>4.6</v>
       </c>
-      <c r="AU10">
-        <v>44</v>
-      </c>
-      <c r="AV10">
-        <v>3.75</v>
-      </c>
-      <c r="AW10">
-        <v>1000</v>
-      </c>
-      <c r="AX10">
-        <v>3.6</v>
-      </c>
       <c r="AY10">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AZ10">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BA10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB10">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="BC10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="BE10">
-        <v>910</v>
+        <v>980</v>
       </c>
       <c r="BF10">
         <v>33119331</v>
@@ -2682,49 +2853,49 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F11">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="G11">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H11">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="I11">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M11">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="O11">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="P11">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q11">
         <v>2.08</v>
@@ -2736,115 +2907,115 @@
         <v>2.06</v>
       </c>
       <c r="T11">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="U11">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V11">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W11">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z11">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AA11">
         <v>55</v>
       </c>
       <c r="AB11">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC11">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD11">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE11">
         <v>7.6</v>
       </c>
       <c r="AF11">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG11">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH11">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="AI11">
         <v>42</v>
       </c>
       <c r="AJ11">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM11">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AN11">
         <v>18</v>
       </c>
       <c r="AO11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AQ11">
         <v>65</v>
       </c>
       <c r="AR11">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="AS11">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AT11">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AV11">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AW11">
         <v>60</v>
       </c>
       <c r="AX11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AY11">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB11">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="BC11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD11">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2879,196 +3050,196 @@
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>3.8</v>
+        <v>1.51</v>
       </c>
       <c r="G12">
-        <v>4.1</v>
+        <v>480</v>
       </c>
       <c r="H12">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="I12">
-        <v>2.18</v>
+        <v>870</v>
       </c>
       <c r="J12">
-        <v>3.6</v>
+        <v>1.71</v>
       </c>
       <c r="K12">
-        <v>3.75</v>
+        <v>330</v>
       </c>
       <c r="L12">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="M12">
-        <v>2.06</v>
+        <v>21</v>
       </c>
       <c r="N12">
-        <v>1.94</v>
+        <v>1.1</v>
       </c>
       <c r="O12">
-        <v>2.18</v>
+        <v>6.6</v>
       </c>
       <c r="P12">
-        <v>1.74</v>
+        <v>1.1</v>
       </c>
       <c r="Q12">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="S12">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="T12">
-        <v>11</v>
+        <v>1.49</v>
       </c>
       <c r="U12">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="V12">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="W12">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="X12">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z12">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AA12">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AC12">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD12">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AE12">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF12">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="AG12">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AI12">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AK12">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL12">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AM12">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AN12">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AO12">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AP12">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="AQ12">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AR12">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AS12">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU12">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AV12">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AW12">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AY12">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>8.4</v>
+        <v>1.55</v>
       </c>
       <c r="BA12">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BB12">
-        <v>12</v>
+        <v>1.55</v>
       </c>
       <c r="BC12">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="BD12">
-        <v>5.9</v>
+        <v>1.01</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12">
-        <v>33114733</v>
+      <c r="BF12" t="s">
+        <v>132</v>
       </c>
       <c r="BG12">
-        <v>4231683</v>
+        <v>39342259</v>
       </c>
       <c r="BH12">
-        <v>219596</v>
+        <v>10625562</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12">
-        <v>1.22624847</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
+      <c r="BJ12" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3076,196 +3247,196 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="G13">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I13">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J13">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K13">
-        <v>350</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="P13">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="Q13">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="R13">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="S13">
+        <v>2.06</v>
+      </c>
+      <c r="T13">
+        <v>2.18</v>
+      </c>
+      <c r="U13">
+        <v>11.5</v>
+      </c>
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>12.5</v>
+      </c>
+      <c r="X13">
+        <v>2.42</v>
+      </c>
+      <c r="Y13">
+        <v>25</v>
+      </c>
+      <c r="Z13">
+        <v>2.28</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AB13">
         <v>2.68</v>
       </c>
-      <c r="T13">
-        <v>1.13</v>
-      </c>
-      <c r="U13">
-        <v>13</v>
-      </c>
-      <c r="V13">
-        <v>1.24</v>
-      </c>
-      <c r="W13">
-        <v>15</v>
-      </c>
-      <c r="X13">
-        <v>1.24</v>
-      </c>
-      <c r="Y13">
-        <v>1000</v>
-      </c>
-      <c r="Z13">
-        <v>1.24</v>
-      </c>
-      <c r="AA13">
-        <v>1000</v>
-      </c>
-      <c r="AB13">
-        <v>1.24</v>
-      </c>
       <c r="AC13">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD13">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="AE13">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AF13">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="AG13">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH13">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="AI13">
         <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="AK13">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL13">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
       <c r="AM13">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AN13">
-        <v>1.24</v>
+        <v>2.4</v>
       </c>
       <c r="AO13">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
       </c>
       <c r="AR13">
-        <v>1.24</v>
+        <v>2.4</v>
       </c>
       <c r="AS13">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AT13">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="AU13">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AV13">
-        <v>1.24</v>
+        <v>2.36</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>1.24</v>
+        <v>2.64</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="BA13">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="BB13">
-        <v>1.22</v>
+        <v>2.16</v>
       </c>
       <c r="BC13">
         <v>1000</v>
       </c>
       <c r="BD13">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13">
-        <v>33117059</v>
+      <c r="BF13" t="s">
+        <v>133</v>
       </c>
       <c r="BG13">
-        <v>1067928</v>
+        <v>46783501</v>
       </c>
       <c r="BH13">
-        <v>6161547</v>
+        <v>18110373</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13">
-        <v>1.226290651</v>
-      </c>
-      <c r="BK13">
-        <v>1.226290696</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+      <c r="BJ13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3273,584 +3444,584 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F14">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="G14">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="H14">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="I14">
-        <v>3.25</v>
+        <v>2.14</v>
       </c>
       <c r="J14">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="K14">
-        <v>2.98</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="M14">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="N14">
-        <v>2.76</v>
+        <v>1.89</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="P14">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="Q14">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="R14">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="S14">
-        <v>1.82</v>
+        <v>2.46</v>
       </c>
       <c r="T14">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="U14">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="V14">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W14">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="X14">
+        <v>6.4</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+      <c r="Z14">
+        <v>22</v>
+      </c>
+      <c r="AA14">
+        <v>25</v>
+      </c>
+      <c r="AB14">
+        <v>13.5</v>
+      </c>
+      <c r="AC14">
+        <v>16</v>
+      </c>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>10.5</v>
+      </c>
+      <c r="AH14">
+        <v>8</v>
+      </c>
+      <c r="AI14">
+        <v>22</v>
+      </c>
+      <c r="AJ14">
+        <v>8.6</v>
+      </c>
+      <c r="AK14">
+        <v>28</v>
+      </c>
+      <c r="AL14">
+        <v>14.5</v>
+      </c>
+      <c r="AM14">
         <v>16.5</v>
       </c>
-      <c r="Y14">
-        <v>18.5</v>
-      </c>
-      <c r="Z14">
-        <v>10.5</v>
-      </c>
-      <c r="AA14">
-        <v>65</v>
-      </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
-      <c r="AC14">
-        <v>8.4</v>
-      </c>
-      <c r="AD14">
-        <v>6.4</v>
-      </c>
-      <c r="AE14">
-        <v>6.6</v>
-      </c>
-      <c r="AF14">
-        <v>13.5</v>
-      </c>
-      <c r="AG14">
-        <v>15.5</v>
-      </c>
-      <c r="AH14">
+      <c r="AN14">
+        <v>16</v>
+      </c>
+      <c r="AO14">
+        <v>19.5</v>
+      </c>
+      <c r="AP14">
         <v>30</v>
       </c>
-      <c r="AI14">
-        <v>60</v>
-      </c>
-      <c r="AJ14">
-        <v>7</v>
-      </c>
-      <c r="AK14">
-        <v>980</v>
-      </c>
-      <c r="AL14">
-        <v>12.5</v>
-      </c>
-      <c r="AM14">
-        <v>14.5</v>
-      </c>
-      <c r="AN14">
-        <v>22</v>
-      </c>
-      <c r="AO14">
-        <v>29</v>
-      </c>
-      <c r="AP14">
-        <v>11.5</v>
-      </c>
       <c r="AQ14">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AR14">
-        <v>40</v>
+        <v>4.6</v>
       </c>
       <c r="AS14">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AT14">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AU14">
         <v>50</v>
       </c>
       <c r="AV14">
+        <v>10.5</v>
+      </c>
+      <c r="AW14">
+        <v>60</v>
+      </c>
+      <c r="AX14">
         <v>11</v>
       </c>
-      <c r="AW14">
-        <v>95</v>
-      </c>
-      <c r="AX14">
+      <c r="AY14">
+        <v>110</v>
+      </c>
+      <c r="AZ14">
+        <v>10</v>
+      </c>
+      <c r="BA14">
+        <v>50</v>
+      </c>
+      <c r="BB14">
         <v>12</v>
       </c>
-      <c r="AY14">
-        <v>980</v>
-      </c>
-      <c r="AZ14">
-        <v>10.5</v>
-      </c>
-      <c r="BA14">
-        <v>65</v>
-      </c>
-      <c r="BB14">
-        <v>11</v>
-      </c>
       <c r="BC14">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="BD14">
-        <v>12.5</v>
+        <v>4.8</v>
       </c>
       <c r="BE14">
         <v>1000</v>
       </c>
       <c r="BF14">
-        <v>33100572</v>
+        <v>33114733</v>
       </c>
       <c r="BG14">
-        <v>194503</v>
+        <v>4231683</v>
       </c>
       <c r="BH14">
-        <v>1551296</v>
+        <v>219596</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14">
-        <v>1.226055932</v>
+        <v>1.22624847</v>
       </c>
       <c r="BK14">
-        <v>1.226055942</v>
+        <v>0</v>
       </c>
       <c r="BL14">
         <v>0</v>
       </c>
       <c r="BM14">
-        <v>1.226055941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F15">
-        <v>1.66</v>
+        <v>2.56</v>
       </c>
       <c r="G15">
-        <v>480</v>
+        <v>4.9</v>
       </c>
       <c r="H15">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>870</v>
+        <v>3.5</v>
       </c>
       <c r="J15">
-        <v>1.21</v>
+        <v>3.1</v>
       </c>
       <c r="K15">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L15">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1.1</v>
       </c>
       <c r="O15">
+        <v>3.35</v>
+      </c>
+      <c r="P15">
+        <v>1.01</v>
+      </c>
+      <c r="Q15">
+        <v>1000</v>
+      </c>
+      <c r="R15">
+        <v>1.01</v>
+      </c>
+      <c r="S15">
+        <v>1000</v>
+      </c>
+      <c r="T15">
+        <v>1.49</v>
+      </c>
+      <c r="U15">
+        <v>1000</v>
+      </c>
+      <c r="V15">
+        <v>2.98</v>
+      </c>
+      <c r="W15">
+        <v>1000</v>
+      </c>
+      <c r="X15">
+        <v>2.54</v>
+      </c>
+      <c r="Y15">
+        <v>1000</v>
+      </c>
+      <c r="Z15">
+        <v>3.2</v>
+      </c>
+      <c r="AA15">
+        <v>1000</v>
+      </c>
+      <c r="AB15">
+        <v>2.54</v>
+      </c>
+      <c r="AC15">
+        <v>1000</v>
+      </c>
+      <c r="AD15">
+        <v>3.9</v>
+      </c>
+      <c r="AE15">
+        <v>1000</v>
+      </c>
+      <c r="AF15">
+        <v>4.8</v>
+      </c>
+      <c r="AG15">
+        <v>1000</v>
+      </c>
+      <c r="AH15">
+        <v>8.4</v>
+      </c>
+      <c r="AI15">
+        <v>1000</v>
+      </c>
+      <c r="AJ15">
+        <v>2.88</v>
+      </c>
+      <c r="AK15">
+        <v>1000</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <v>1000</v>
+      </c>
+      <c r="AN15">
         <v>4.6</v>
       </c>
-      <c r="P15">
-        <v>1.1</v>
-      </c>
-      <c r="Q15">
-        <v>1000</v>
-      </c>
-      <c r="R15">
-        <v>1.1</v>
-      </c>
-      <c r="S15">
-        <v>1000</v>
-      </c>
-      <c r="T15">
-        <v>1.43</v>
-      </c>
-      <c r="U15">
-        <v>980</v>
-      </c>
-      <c r="V15">
-        <v>1.1</v>
-      </c>
-      <c r="W15">
-        <v>980</v>
-      </c>
-      <c r="X15">
-        <v>1.1</v>
-      </c>
-      <c r="Y15">
-        <v>1000</v>
-      </c>
-      <c r="Z15">
-        <v>1.1</v>
-      </c>
-      <c r="AA15">
-        <v>1000</v>
-      </c>
-      <c r="AB15">
-        <v>1.1</v>
-      </c>
-      <c r="AC15">
-        <v>980</v>
-      </c>
-      <c r="AD15">
-        <v>1.1</v>
-      </c>
-      <c r="AE15">
-        <v>980</v>
-      </c>
-      <c r="AF15">
-        <v>1.1</v>
-      </c>
-      <c r="AG15">
-        <v>980</v>
-      </c>
-      <c r="AH15">
-        <v>1.1</v>
-      </c>
-      <c r="AI15">
-        <v>1000</v>
-      </c>
-      <c r="AJ15">
-        <v>1.1</v>
-      </c>
-      <c r="AK15">
-        <v>1000</v>
-      </c>
-      <c r="AL15">
-        <v>1.1</v>
-      </c>
-      <c r="AM15">
-        <v>980</v>
-      </c>
-      <c r="AN15">
-        <v>1.1</v>
-      </c>
       <c r="AO15">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP15">
-        <v>1.1</v>
+        <v>14</v>
       </c>
       <c r="AQ15">
         <v>1000</v>
       </c>
       <c r="AR15">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="AS15">
         <v>1000</v>
       </c>
       <c r="AT15">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="AU15">
         <v>1000</v>
       </c>
       <c r="AV15">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW15">
         <v>1000</v>
       </c>
       <c r="AX15">
-        <v>1.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY15">
         <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA15">
         <v>1000</v>
       </c>
       <c r="BB15">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC15">
         <v>1000</v>
       </c>
       <c r="BD15">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15">
-        <v>33117065</v>
+      <c r="BF15" t="s">
+        <v>134</v>
       </c>
       <c r="BG15">
-        <v>7005170</v>
+        <v>2608900</v>
       </c>
       <c r="BH15">
-        <v>13749040</v>
+        <v>1282856</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15">
-        <v>1.226290561</v>
-      </c>
-      <c r="BK15">
-        <v>1.226290606</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
+      <c r="BJ15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F16">
-        <v>1.49</v>
+        <v>2.14</v>
       </c>
       <c r="G16">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="H16">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="I16">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="J16">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="K16">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="M16">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="N16">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="O16">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="P16">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="Q16">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R16">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="S16">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
+        <v>3.9</v>
+      </c>
+      <c r="U16">
+        <v>11.5</v>
+      </c>
+      <c r="V16">
         <v>4.3</v>
       </c>
-      <c r="U16">
-        <v>24</v>
-      </c>
-      <c r="V16">
-        <v>4.4</v>
-      </c>
       <c r="W16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="X16">
         <v>4.8</v>
       </c>
       <c r="Y16">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z16">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AA16">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="AB16">
-        <v>8.199999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="AC16">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16">
-        <v>8.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="AE16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF16">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AG16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AH16">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AI16">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AJ16">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="AK16">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AL16">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="AM16">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AN16">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP16">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AQ16">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AR16">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS16">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AT16">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AU16">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AV16">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AW16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AX16">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY16">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AZ16">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="BA16">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="BB16">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BC16">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BD16">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="BE16">
         <v>1000</v>
       </c>
       <c r="BF16">
-        <v>33116669</v>
+        <v>33117059</v>
       </c>
       <c r="BG16">
-        <v>897347</v>
+        <v>1067928</v>
       </c>
       <c r="BH16">
-        <v>330234</v>
+        <v>6161547</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16">
-        <v>1.226290741</v>
+        <v>1.226290651</v>
       </c>
       <c r="BK16">
-        <v>1.226290786</v>
+        <v>1.226290696</v>
       </c>
       <c r="BL16">
         <v>0</v>
@@ -3861,199 +4032,1578 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F17">
-        <v>2.82</v>
+        <v>1.71</v>
       </c>
       <c r="G17">
-        <v>3.05</v>
+        <v>1.82</v>
       </c>
       <c r="H17">
-        <v>2.84</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>3.05</v>
+        <v>7.6</v>
       </c>
       <c r="J17">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="M17">
-        <v>1.65</v>
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>2.54</v>
+        <v>1.33</v>
       </c>
       <c r="O17">
-        <v>2.94</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>2.08</v>
+        <v>1.11</v>
       </c>
       <c r="Q17">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="R17">
-        <v>1.77</v>
+        <v>1.11</v>
       </c>
       <c r="S17">
-        <v>1.93</v>
+        <v>10.5</v>
       </c>
       <c r="T17">
-        <v>7.6</v>
+        <v>1.49</v>
       </c>
       <c r="U17">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="V17">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="W17">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="X17">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="Y17">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AA17">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB17">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AC17">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD17">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AE17">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AF17">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AG17">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17">
-        <v>34</v>
+        <v>1.01</v>
       </c>
       <c r="AI17">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AK17">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AM17">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AN17">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="AO17">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AP17">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AQ17">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR17">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS17">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AT17">
-        <v>32</v>
+        <v>1.01</v>
       </c>
       <c r="AU17">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AV17">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW17">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AX17">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY17">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="BA17">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BB17">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="BC17">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BD17">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17">
-        <v>33100574</v>
+      <c r="BF17" t="s">
+        <v>135</v>
       </c>
       <c r="BG17">
-        <v>1496989</v>
+        <v>3738659</v>
       </c>
       <c r="BH17">
-        <v>194513</v>
+        <v>10160867</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18">
+        <v>2.86</v>
+      </c>
+      <c r="G18">
+        <v>2.96</v>
+      </c>
+      <c r="H18">
+        <v>3.05</v>
+      </c>
+      <c r="I18">
+        <v>3.15</v>
+      </c>
+      <c r="J18">
+        <v>2.98</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1.45</v>
+      </c>
+      <c r="M18">
+        <v>1.5</v>
+      </c>
+      <c r="N18">
+        <v>2.98</v>
+      </c>
+      <c r="O18">
+        <v>3.2</v>
+      </c>
+      <c r="P18">
+        <v>2.24</v>
+      </c>
+      <c r="Q18">
+        <v>2.44</v>
+      </c>
+      <c r="R18">
+        <v>1.69</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
+        <v>6.6</v>
+      </c>
+      <c r="U18">
+        <v>7.8</v>
+      </c>
+      <c r="V18">
+        <v>7.8</v>
+      </c>
+      <c r="W18">
+        <v>8.4</v>
+      </c>
+      <c r="X18">
+        <v>16.5</v>
+      </c>
+      <c r="Y18">
+        <v>18.5</v>
+      </c>
+      <c r="Z18">
+        <v>13.5</v>
+      </c>
+      <c r="AA18">
+        <v>980</v>
+      </c>
+      <c r="AB18">
+        <v>7</v>
+      </c>
+      <c r="AC18">
+        <v>7.8</v>
+      </c>
+      <c r="AD18">
+        <v>6.4</v>
+      </c>
+      <c r="AE18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>14</v>
+      </c>
+      <c r="AG18">
+        <v>15.5</v>
+      </c>
+      <c r="AH18">
+        <v>13</v>
+      </c>
+      <c r="AI18">
+        <v>55</v>
+      </c>
+      <c r="AJ18">
+        <v>14.5</v>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AL18">
+        <v>13</v>
+      </c>
+      <c r="AM18">
+        <v>14.5</v>
+      </c>
+      <c r="AN18">
+        <v>23</v>
+      </c>
+      <c r="AO18">
+        <v>27</v>
+      </c>
+      <c r="AP18">
+        <v>13.5</v>
+      </c>
+      <c r="AQ18">
+        <v>95</v>
+      </c>
+      <c r="AR18">
+        <v>12.5</v>
+      </c>
+      <c r="AS18">
+        <v>50</v>
+      </c>
+      <c r="AT18">
+        <v>12.5</v>
+      </c>
+      <c r="AU18">
+        <v>48</v>
+      </c>
+      <c r="AV18">
+        <v>13.5</v>
+      </c>
+      <c r="AW18">
+        <v>980</v>
+      </c>
+      <c r="AX18">
+        <v>15</v>
+      </c>
+      <c r="AY18">
+        <v>240</v>
+      </c>
+      <c r="AZ18">
+        <v>12.5</v>
+      </c>
+      <c r="BA18">
+        <v>60</v>
+      </c>
+      <c r="BB18">
+        <v>13</v>
+      </c>
+      <c r="BC18">
+        <v>980</v>
+      </c>
+      <c r="BD18">
+        <v>5.5</v>
+      </c>
+      <c r="BE18">
+        <v>1000</v>
+      </c>
+      <c r="BF18">
+        <v>33100572</v>
+      </c>
+      <c r="BG18">
+        <v>194503</v>
+      </c>
+      <c r="BH18">
+        <v>1551296</v>
+      </c>
+      <c r="BI18">
+        <v>58805</v>
+      </c>
+      <c r="BJ18">
+        <v>1.226055932</v>
+      </c>
+      <c r="BK18">
+        <v>1.226055942</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>1.226055941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19">
+        <v>1.41</v>
+      </c>
+      <c r="G19">
+        <v>1.49</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>870</v>
+      </c>
+      <c r="J19">
+        <v>4.4</v>
+      </c>
+      <c r="K19">
+        <v>950</v>
+      </c>
+      <c r="L19">
+        <v>1.78</v>
+      </c>
+      <c r="M19">
+        <v>3.3</v>
+      </c>
+      <c r="N19">
+        <v>1.43</v>
+      </c>
+      <c r="O19">
+        <v>2.28</v>
+      </c>
+      <c r="P19">
+        <v>1.1</v>
+      </c>
+      <c r="Q19">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>1.1</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>1.49</v>
+      </c>
+      <c r="U19">
+        <v>1000</v>
+      </c>
+      <c r="V19">
+        <v>2.84</v>
+      </c>
+      <c r="W19">
+        <v>1000</v>
+      </c>
+      <c r="X19">
+        <v>2.36</v>
+      </c>
+      <c r="Y19">
+        <v>1000</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+      <c r="AA19">
+        <v>1000</v>
+      </c>
+      <c r="AB19">
+        <v>2.62</v>
+      </c>
+      <c r="AC19">
+        <v>1000</v>
+      </c>
+      <c r="AD19">
+        <v>2.68</v>
+      </c>
+      <c r="AE19">
+        <v>1000</v>
+      </c>
+      <c r="AF19">
+        <v>3.95</v>
+      </c>
+      <c r="AG19">
+        <v>1000</v>
+      </c>
+      <c r="AH19">
+        <v>1.01</v>
+      </c>
+      <c r="AI19">
+        <v>1000</v>
+      </c>
+      <c r="AJ19">
+        <v>1.01</v>
+      </c>
+      <c r="AK19">
+        <v>1000</v>
+      </c>
+      <c r="AL19">
+        <v>3.3</v>
+      </c>
+      <c r="AM19">
+        <v>1000</v>
+      </c>
+      <c r="AN19">
+        <v>5.3</v>
+      </c>
+      <c r="AO19">
+        <v>1000</v>
+      </c>
+      <c r="AP19">
+        <v>1.01</v>
+      </c>
+      <c r="AQ19">
+        <v>1000</v>
+      </c>
+      <c r="AR19">
+        <v>3.1</v>
+      </c>
+      <c r="AS19">
+        <v>1000</v>
+      </c>
+      <c r="AT19">
+        <v>6.8</v>
+      </c>
+      <c r="AU19">
+        <v>1000</v>
+      </c>
+      <c r="AV19">
+        <v>6.6</v>
+      </c>
+      <c r="AW19">
+        <v>1000</v>
+      </c>
+      <c r="AX19">
+        <v>1.01</v>
+      </c>
+      <c r="AY19">
+        <v>1000</v>
+      </c>
+      <c r="AZ19">
+        <v>1.01</v>
+      </c>
+      <c r="BA19">
+        <v>1000</v>
+      </c>
+      <c r="BB19">
+        <v>1.01</v>
+      </c>
+      <c r="BC19">
+        <v>1000</v>
+      </c>
+      <c r="BD19">
+        <v>1.01</v>
+      </c>
+      <c r="BE19">
+        <v>1000</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG19">
+        <v>893608</v>
+      </c>
+      <c r="BH19">
+        <v>16922830</v>
+      </c>
+      <c r="BI19">
+        <v>58805</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <v>1.66</v>
+      </c>
+      <c r="G20">
+        <v>480</v>
+      </c>
+      <c r="H20">
+        <v>1.04</v>
+      </c>
+      <c r="I20">
+        <v>870</v>
+      </c>
+      <c r="J20">
+        <v>1.21</v>
+      </c>
+      <c r="K20">
+        <v>950</v>
+      </c>
+      <c r="L20">
+        <v>1.27</v>
+      </c>
+      <c r="M20">
+        <v>55</v>
+      </c>
+      <c r="N20">
+        <v>1.1</v>
+      </c>
+      <c r="O20">
+        <v>4.6</v>
+      </c>
+      <c r="P20">
+        <v>1.1</v>
+      </c>
+      <c r="Q20">
+        <v>1000</v>
+      </c>
+      <c r="R20">
+        <v>1.1</v>
+      </c>
+      <c r="S20">
+        <v>1000</v>
+      </c>
+      <c r="T20">
+        <v>1.49</v>
+      </c>
+      <c r="U20">
+        <v>980</v>
+      </c>
+      <c r="V20">
+        <v>1.1</v>
+      </c>
+      <c r="W20">
+        <v>980</v>
+      </c>
+      <c r="X20">
+        <v>1.1</v>
+      </c>
+      <c r="Y20">
+        <v>1000</v>
+      </c>
+      <c r="Z20">
+        <v>1.1</v>
+      </c>
+      <c r="AA20">
+        <v>1000</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>980</v>
+      </c>
+      <c r="AD20">
+        <v>1.1</v>
+      </c>
+      <c r="AE20">
+        <v>980</v>
+      </c>
+      <c r="AF20">
+        <v>1.1</v>
+      </c>
+      <c r="AG20">
+        <v>980</v>
+      </c>
+      <c r="AH20">
+        <v>1.1</v>
+      </c>
+      <c r="AI20">
+        <v>1000</v>
+      </c>
+      <c r="AJ20">
+        <v>1.1</v>
+      </c>
+      <c r="AK20">
+        <v>1000</v>
+      </c>
+      <c r="AL20">
+        <v>1.1</v>
+      </c>
+      <c r="AM20">
+        <v>980</v>
+      </c>
+      <c r="AN20">
+        <v>1.1</v>
+      </c>
+      <c r="AO20">
+        <v>980</v>
+      </c>
+      <c r="AP20">
+        <v>1.1</v>
+      </c>
+      <c r="AQ20">
+        <v>1000</v>
+      </c>
+      <c r="AR20">
+        <v>1.1</v>
+      </c>
+      <c r="AS20">
+        <v>1000</v>
+      </c>
+      <c r="AT20">
+        <v>1.1</v>
+      </c>
+      <c r="AU20">
+        <v>1000</v>
+      </c>
+      <c r="AV20">
+        <v>1.1</v>
+      </c>
+      <c r="AW20">
+        <v>1000</v>
+      </c>
+      <c r="AX20">
+        <v>1.1</v>
+      </c>
+      <c r="AY20">
+        <v>1000</v>
+      </c>
+      <c r="AZ20">
+        <v>1.1</v>
+      </c>
+      <c r="BA20">
+        <v>1000</v>
+      </c>
+      <c r="BB20">
+        <v>1.1</v>
+      </c>
+      <c r="BC20">
+        <v>1000</v>
+      </c>
+      <c r="BD20">
+        <v>1.1</v>
+      </c>
+      <c r="BE20">
+        <v>1000</v>
+      </c>
+      <c r="BF20">
+        <v>33117065</v>
+      </c>
+      <c r="BG20">
+        <v>7005170</v>
+      </c>
+      <c r="BH20">
+        <v>13749040</v>
+      </c>
+      <c r="BI20">
+        <v>58805</v>
+      </c>
+      <c r="BJ20">
+        <v>1.226290561</v>
+      </c>
+      <c r="BK20">
+        <v>1.226290606</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21">
+        <v>1.42</v>
+      </c>
+      <c r="G21">
+        <v>1.48</v>
+      </c>
+      <c r="H21">
+        <v>7.2</v>
+      </c>
+      <c r="I21">
+        <v>9.6</v>
+      </c>
+      <c r="J21">
+        <v>4.7</v>
+      </c>
+      <c r="K21">
+        <v>5.8</v>
+      </c>
+      <c r="L21">
+        <v>2.26</v>
+      </c>
+      <c r="M21">
+        <v>2.68</v>
+      </c>
+      <c r="N21">
+        <v>1.6</v>
+      </c>
+      <c r="O21">
+        <v>1.79</v>
+      </c>
+      <c r="P21">
+        <v>1.8</v>
+      </c>
+      <c r="Q21">
+        <v>2.1</v>
+      </c>
+      <c r="R21">
+        <v>1.91</v>
+      </c>
+      <c r="S21">
+        <v>2.26</v>
+      </c>
+      <c r="T21">
+        <v>16</v>
+      </c>
+      <c r="U21">
+        <v>27</v>
+      </c>
+      <c r="V21">
+        <v>21</v>
+      </c>
+      <c r="W21">
+        <v>38</v>
+      </c>
+      <c r="X21">
+        <v>4.1</v>
+      </c>
+      <c r="Y21">
+        <v>90</v>
+      </c>
+      <c r="Z21">
+        <v>4.3</v>
+      </c>
+      <c r="AA21">
+        <v>1000</v>
+      </c>
+      <c r="AB21">
+        <v>7.4</v>
+      </c>
+      <c r="AC21">
+        <v>12.5</v>
+      </c>
+      <c r="AD21">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>15</v>
+      </c>
+      <c r="AF21">
+        <v>4.2</v>
+      </c>
+      <c r="AG21">
+        <v>38</v>
+      </c>
+      <c r="AH21">
+        <v>4.2</v>
+      </c>
+      <c r="AI21">
+        <v>140</v>
+      </c>
+      <c r="AJ21">
+        <v>7.6</v>
+      </c>
+      <c r="AK21">
+        <v>11.5</v>
+      </c>
+      <c r="AL21">
+        <v>8.4</v>
+      </c>
+      <c r="AM21">
+        <v>12.5</v>
+      </c>
+      <c r="AN21">
+        <v>18</v>
+      </c>
+      <c r="AO21">
+        <v>30</v>
+      </c>
+      <c r="AP21">
+        <v>4.2</v>
+      </c>
+      <c r="AQ21">
+        <v>120</v>
+      </c>
+      <c r="AR21">
+        <v>9.4</v>
+      </c>
+      <c r="AS21">
+        <v>15.5</v>
+      </c>
+      <c r="AT21">
+        <v>10.5</v>
+      </c>
+      <c r="AU21">
+        <v>17.5</v>
+      </c>
+      <c r="AV21">
+        <v>4.2</v>
+      </c>
+      <c r="AW21">
+        <v>40</v>
+      </c>
+      <c r="AX21">
+        <v>4.2</v>
+      </c>
+      <c r="AY21">
+        <v>150</v>
+      </c>
+      <c r="AZ21">
+        <v>2.68</v>
+      </c>
+      <c r="BA21">
+        <v>7</v>
+      </c>
+      <c r="BB21">
+        <v>4.2</v>
+      </c>
+      <c r="BC21">
+        <v>150</v>
+      </c>
+      <c r="BD21">
+        <v>4.3</v>
+      </c>
+      <c r="BE21">
+        <v>1000</v>
+      </c>
+      <c r="BF21">
+        <v>33116669</v>
+      </c>
+      <c r="BG21">
+        <v>897347</v>
+      </c>
+      <c r="BH21">
+        <v>330234</v>
+      </c>
+      <c r="BI21">
+        <v>58805</v>
+      </c>
+      <c r="BJ21">
+        <v>1.226290741</v>
+      </c>
+      <c r="BK21">
+        <v>1.226290786</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <v>2.88</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2.86</v>
+      </c>
+      <c r="I22">
+        <v>2.98</v>
+      </c>
+      <c r="J22">
+        <v>3.1</v>
+      </c>
+      <c r="K22">
+        <v>3.15</v>
+      </c>
+      <c r="L22">
+        <v>1.5</v>
+      </c>
+      <c r="M22">
+        <v>1.64</v>
+      </c>
+      <c r="N22">
+        <v>2.58</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>2.14</v>
+      </c>
+      <c r="Q22">
+        <v>2.32</v>
+      </c>
+      <c r="R22">
+        <v>1.75</v>
+      </c>
+      <c r="S22">
+        <v>1.88</v>
+      </c>
+      <c r="T22">
+        <v>7.6</v>
+      </c>
+      <c r="U22">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="V22">
+        <v>7.6</v>
+      </c>
+      <c r="W22">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X22">
+        <v>15</v>
+      </c>
+      <c r="Y22">
+        <v>17</v>
+      </c>
+      <c r="Z22">
+        <v>9.6</v>
+      </c>
+      <c r="AA22">
+        <v>50</v>
+      </c>
+      <c r="AB22">
+        <v>7.8</v>
+      </c>
+      <c r="AC22">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>6.6</v>
+      </c>
+      <c r="AE22">
+        <v>7.4</v>
+      </c>
+      <c r="AF22">
+        <v>12.5</v>
+      </c>
+      <c r="AG22">
+        <v>14</v>
+      </c>
+      <c r="AH22">
+        <v>36</v>
+      </c>
+      <c r="AI22">
+        <v>46</v>
+      </c>
+      <c r="AJ22">
+        <v>15</v>
+      </c>
+      <c r="AK22">
+        <v>17</v>
+      </c>
+      <c r="AL22">
+        <v>12</v>
+      </c>
+      <c r="AM22">
+        <v>14</v>
+      </c>
+      <c r="AN22">
+        <v>21</v>
+      </c>
+      <c r="AO22">
+        <v>25</v>
+      </c>
+      <c r="AP22">
+        <v>10</v>
+      </c>
+      <c r="AQ22">
+        <v>80</v>
+      </c>
+      <c r="AR22">
+        <v>9.6</v>
+      </c>
+      <c r="AS22">
+        <v>55</v>
+      </c>
+      <c r="AT22">
+        <v>34</v>
+      </c>
+      <c r="AU22">
+        <v>48</v>
+      </c>
+      <c r="AV22">
+        <v>10</v>
+      </c>
+      <c r="AW22">
+        <v>980</v>
+      </c>
+      <c r="AX22">
+        <v>11</v>
+      </c>
+      <c r="AY22">
+        <v>980</v>
+      </c>
+      <c r="AZ22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BA22">
+        <v>55</v>
+      </c>
+      <c r="BB22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BC22">
+        <v>55</v>
+      </c>
+      <c r="BD22">
+        <v>11.5</v>
+      </c>
+      <c r="BE22">
+        <v>1000</v>
+      </c>
+      <c r="BF22">
+        <v>33100574</v>
+      </c>
+      <c r="BG22">
+        <v>1496989</v>
+      </c>
+      <c r="BH22">
+        <v>194513</v>
+      </c>
+      <c r="BI22">
+        <v>58805</v>
+      </c>
+      <c r="BJ22">
         <v>1.22605582</v>
       </c>
-      <c r="BK17">
+      <c r="BK22">
         <v>1.22605583</v>
       </c>
-      <c r="BL17">
+      <c r="BL22">
         <v>0</v>
       </c>
-      <c r="BM17">
+      <c r="BM22">
         <v>1.226055829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23">
+        <v>1.61</v>
+      </c>
+      <c r="G23">
+        <v>2.4</v>
+      </c>
+      <c r="H23">
+        <v>3.75</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>2.7</v>
+      </c>
+      <c r="K23">
+        <v>330</v>
+      </c>
+      <c r="L23">
+        <v>1.29</v>
+      </c>
+      <c r="M23">
+        <v>1.95</v>
+      </c>
+      <c r="N23">
+        <v>2.04</v>
+      </c>
+      <c r="O23">
+        <v>4.5</v>
+      </c>
+      <c r="P23">
+        <v>1.87</v>
+      </c>
+      <c r="Q23">
+        <v>2.48</v>
+      </c>
+      <c r="R23">
+        <v>1.68</v>
+      </c>
+      <c r="S23">
+        <v>2.14</v>
+      </c>
+      <c r="T23">
+        <v>1.1</v>
+      </c>
+      <c r="U23">
+        <v>980</v>
+      </c>
+      <c r="V23">
+        <v>1.1</v>
+      </c>
+      <c r="W23">
+        <v>980</v>
+      </c>
+      <c r="X23">
+        <v>1.1</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>1.1</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>1.1</v>
+      </c>
+      <c r="AC23">
+        <v>980</v>
+      </c>
+      <c r="AD23">
+        <v>1.1</v>
+      </c>
+      <c r="AE23">
+        <v>980</v>
+      </c>
+      <c r="AF23">
+        <v>1.1</v>
+      </c>
+      <c r="AG23">
+        <v>980</v>
+      </c>
+      <c r="AH23">
+        <v>1.1</v>
+      </c>
+      <c r="AI23">
+        <v>1000</v>
+      </c>
+      <c r="AJ23">
+        <v>1.1</v>
+      </c>
+      <c r="AK23">
+        <v>1000</v>
+      </c>
+      <c r="AL23">
+        <v>1.1</v>
+      </c>
+      <c r="AM23">
+        <v>980</v>
+      </c>
+      <c r="AN23">
+        <v>1.1</v>
+      </c>
+      <c r="AO23">
+        <v>980</v>
+      </c>
+      <c r="AP23">
+        <v>1.1</v>
+      </c>
+      <c r="AQ23">
+        <v>1000</v>
+      </c>
+      <c r="AR23">
+        <v>1.1</v>
+      </c>
+      <c r="AS23">
+        <v>1000</v>
+      </c>
+      <c r="AT23">
+        <v>1.1</v>
+      </c>
+      <c r="AU23">
+        <v>1000</v>
+      </c>
+      <c r="AV23">
+        <v>1.1</v>
+      </c>
+      <c r="AW23">
+        <v>1000</v>
+      </c>
+      <c r="AX23">
+        <v>1.1</v>
+      </c>
+      <c r="AY23">
+        <v>1000</v>
+      </c>
+      <c r="AZ23">
+        <v>1.1</v>
+      </c>
+      <c r="BA23">
+        <v>1000</v>
+      </c>
+      <c r="BB23">
+        <v>1.1</v>
+      </c>
+      <c r="BC23">
+        <v>1000</v>
+      </c>
+      <c r="BD23">
+        <v>1.1</v>
+      </c>
+      <c r="BE23">
+        <v>1000</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG23">
+        <v>712865</v>
+      </c>
+      <c r="BH23">
+        <v>224547</v>
+      </c>
+      <c r="BI23">
+        <v>58805</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24">
+        <v>3.1</v>
+      </c>
+      <c r="G24">
+        <v>3.65</v>
+      </c>
+      <c r="H24">
+        <v>2.34</v>
+      </c>
+      <c r="I24">
+        <v>2.74</v>
+      </c>
+      <c r="J24">
+        <v>2.8</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>1.33</v>
+      </c>
+      <c r="M24">
+        <v>1.82</v>
+      </c>
+      <c r="N24">
+        <v>2.22</v>
+      </c>
+      <c r="O24">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <v>1.1</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>1.1</v>
+      </c>
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>1.49</v>
+      </c>
+      <c r="U24">
+        <v>1000</v>
+      </c>
+      <c r="V24">
+        <v>1.14</v>
+      </c>
+      <c r="W24">
+        <v>1000</v>
+      </c>
+      <c r="X24">
+        <v>1.13</v>
+      </c>
+      <c r="Y24">
+        <v>1000</v>
+      </c>
+      <c r="Z24">
+        <v>1.13</v>
+      </c>
+      <c r="AA24">
+        <v>1000</v>
+      </c>
+      <c r="AB24">
+        <v>1.13</v>
+      </c>
+      <c r="AC24">
+        <v>1000</v>
+      </c>
+      <c r="AD24">
+        <v>1.01</v>
+      </c>
+      <c r="AE24">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>1.13</v>
+      </c>
+      <c r="AG24">
+        <v>1000</v>
+      </c>
+      <c r="AH24">
+        <v>1.13</v>
+      </c>
+      <c r="AI24">
+        <v>1000</v>
+      </c>
+      <c r="AJ24">
+        <v>1.13</v>
+      </c>
+      <c r="AK24">
+        <v>1000</v>
+      </c>
+      <c r="AL24">
+        <v>1.13</v>
+      </c>
+      <c r="AM24">
+        <v>1000</v>
+      </c>
+      <c r="AN24">
+        <v>1.13</v>
+      </c>
+      <c r="AO24">
+        <v>1000</v>
+      </c>
+      <c r="AP24">
+        <v>1.13</v>
+      </c>
+      <c r="AQ24">
+        <v>1000</v>
+      </c>
+      <c r="AR24">
+        <v>1.13</v>
+      </c>
+      <c r="AS24">
+        <v>1000</v>
+      </c>
+      <c r="AT24">
+        <v>1.13</v>
+      </c>
+      <c r="AU24">
+        <v>1000</v>
+      </c>
+      <c r="AV24">
+        <v>1.13</v>
+      </c>
+      <c r="AW24">
+        <v>1000</v>
+      </c>
+      <c r="AX24">
+        <v>1.13</v>
+      </c>
+      <c r="AY24">
+        <v>1000</v>
+      </c>
+      <c r="AZ24">
+        <v>1.13</v>
+      </c>
+      <c r="BA24">
+        <v>1000</v>
+      </c>
+      <c r="BB24">
+        <v>1.13</v>
+      </c>
+      <c r="BC24">
+        <v>1000</v>
+      </c>
+      <c r="BD24">
+        <v>1.14</v>
+      </c>
+      <c r="BE24">
+        <v>1000</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG24">
+        <v>4129326</v>
+      </c>
+      <c r="BH24">
+        <v>13442344</v>
+      </c>
+      <c r="BI24">
+        <v>58805</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
   <si>
     <t>League</t>
   </si>
@@ -410,111 +410,6 @@
   </si>
   <si>
     <t>Puerto Cabello</t>
-  </si>
-  <si>
-    <t>33122288</t>
-  </si>
-  <si>
-    <t>33121596</t>
-  </si>
-  <si>
-    <t>33122671</t>
-  </si>
-  <si>
-    <t>33121972</t>
-  </si>
-  <si>
-    <t>33121772</t>
-  </si>
-  <si>
-    <t>33122379</t>
-  </si>
-  <si>
-    <t>33122382</t>
-  </si>
-  <si>
-    <t>1.226389440</t>
-  </si>
-  <si>
-    <t>1.226378473</t>
-  </si>
-  <si>
-    <t>1.226394715</t>
-  </si>
-  <si>
-    <t>1.226383437</t>
-  </si>
-  <si>
-    <t>1.226381364</t>
-  </si>
-  <si>
-    <t>1.226391148</t>
-  </si>
-  <si>
-    <t>1.226391058</t>
-  </si>
-  <si>
-    <t>1.226389485</t>
-  </si>
-  <si>
-    <t>1.226378518</t>
-  </si>
-  <si>
-    <t>1.226394760</t>
-  </si>
-  <si>
-    <t>1.226383482</t>
-  </si>
-  <si>
-    <t>1.226381409</t>
-  </si>
-  <si>
-    <t>1.226391193</t>
-  </si>
-  <si>
-    <t>1.226391103</t>
-  </si>
-  <si>
-    <t>1.226389524</t>
-  </si>
-  <si>
-    <t>1.226378557</t>
-  </si>
-  <si>
-    <t>1.226394799</t>
-  </si>
-  <si>
-    <t>1.226383521</t>
-  </si>
-  <si>
-    <t>1.226381448</t>
-  </si>
-  <si>
-    <t>1.226391232</t>
-  </si>
-  <si>
-    <t>1.226391142</t>
-  </si>
-  <si>
-    <t>1.226389449</t>
-  </si>
-  <si>
-    <t>1.226378482</t>
-  </si>
-  <si>
-    <t>1.226394724</t>
-  </si>
-  <si>
-    <t>1.226383446</t>
-  </si>
-  <si>
-    <t>1.226381373</t>
-  </si>
-  <si>
-    <t>1.226391157</t>
-  </si>
-  <si>
-    <t>1.226391067</t>
   </si>
 </sst>
 </file>
@@ -1092,19 +987,19 @@
         <v>109</v>
       </c>
       <c r="F2">
+        <v>1.69</v>
+      </c>
+      <c r="G2">
         <v>1.75</v>
       </c>
-      <c r="G2">
-        <v>1.79</v>
-      </c>
       <c r="H2">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2">
         <v>4.3</v>
@@ -1113,31 +1008,31 @@
         <v>2.06</v>
       </c>
       <c r="M2">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="N2">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="O2">
         <v>1.95</v>
       </c>
       <c r="P2">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q2">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R2">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="S2">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V2">
         <v>16</v>
@@ -1146,13 +1041,13 @@
         <v>21</v>
       </c>
       <c r="X2">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="Y2">
         <v>44</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AA2">
         <v>980</v>
@@ -1167,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="AE2">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF2">
         <v>17</v>
@@ -1176,7 +1071,7 @@
         <v>22</v>
       </c>
       <c r="AH2">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AI2">
         <v>980</v>
@@ -1191,7 +1086,7 @@
         <v>8.4</v>
       </c>
       <c r="AM2">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN2">
         <v>16.5</v>
@@ -1200,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="AP2">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AQ2">
         <v>980</v>
@@ -1215,34 +1110,34 @@
         <v>14.5</v>
       </c>
       <c r="AU2">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AV2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AW2">
         <v>36</v>
       </c>
       <c r="AX2">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AY2">
         <v>980</v>
       </c>
       <c r="AZ2">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BA2">
         <v>10.5</v>
       </c>
       <c r="BB2">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC2">
         <v>980</v>
       </c>
       <c r="BD2">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1289,37 +1184,37 @@
         <v>110</v>
       </c>
       <c r="F3">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G3">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J3">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K3">
         <v>3.1</v>
       </c>
       <c r="L3">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M3">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q3">
         <v>2.54</v>
@@ -1328,7 +1223,7 @@
         <v>1.64</v>
       </c>
       <c r="S3">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T3">
         <v>6.2</v>
@@ -1382,7 +1277,7 @@
         <v>9.6</v>
       </c>
       <c r="AK3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL3">
         <v>10</v>
@@ -1391,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="AN3">
-        <v>7.6</v>
+        <v>20</v>
       </c>
       <c r="AO3">
         <v>32</v>
@@ -1409,7 +1304,7 @@
         <v>32</v>
       </c>
       <c r="AT3">
-        <v>8.4</v>
+        <v>28</v>
       </c>
       <c r="AU3">
         <v>38</v>
@@ -1427,13 +1322,13 @@
         <v>980</v>
       </c>
       <c r="AZ3">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BA3">
         <v>38</v>
       </c>
       <c r="BB3">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC3">
         <v>980</v>
@@ -1519,43 +1414,43 @@
         <v>1.73</v>
       </c>
       <c r="Q4">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R4">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S4">
         <v>2.36</v>
       </c>
       <c r="T4">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V4">
         <v>10.5</v>
       </c>
       <c r="W4">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X4">
         <v>16</v>
       </c>
       <c r="Y4">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z4">
-        <v>7.8</v>
+        <v>29</v>
       </c>
       <c r="AA4">
         <v>44</v>
       </c>
       <c r="AB4">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC4">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD4">
         <v>7.2</v>
@@ -1576,10 +1471,10 @@
         <v>32</v>
       </c>
       <c r="AJ4">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK4">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL4">
         <v>11</v>
@@ -1591,16 +1486,16 @@
         <v>15</v>
       </c>
       <c r="AO4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4">
-        <v>7.8</v>
+        <v>29</v>
       </c>
       <c r="AQ4">
         <v>44</v>
       </c>
       <c r="AR4">
-        <v>7.8</v>
+        <v>28</v>
       </c>
       <c r="AS4">
         <v>48</v>
@@ -1612,31 +1507,31 @@
         <v>34</v>
       </c>
       <c r="AV4">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="AW4">
         <v>46</v>
       </c>
       <c r="AX4">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AY4">
         <v>980</v>
       </c>
       <c r="AZ4">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB4">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="BC4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BE4">
         <v>980</v>
@@ -1683,37 +1578,37 @@
         <v>112</v>
       </c>
       <c r="F5">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G5">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="H5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K5">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L5">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="M5">
+        <v>2.08</v>
+      </c>
+      <c r="N5">
+        <v>1.92</v>
+      </c>
+      <c r="O5">
         <v>2.14</v>
       </c>
-      <c r="N5">
-        <v>1.89</v>
-      </c>
-      <c r="O5">
-        <v>2.04</v>
-      </c>
       <c r="P5">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1722,28 +1617,28 @@
         <v>2.1</v>
       </c>
       <c r="S5">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="T5">
         <v>12</v>
       </c>
       <c r="U5">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="V5">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W5">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="X5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z5">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA5">
         <v>980</v>
@@ -1752,22 +1647,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>7.6</v>
       </c>
       <c r="AE5">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF5">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH5">
-        <v>4.7</v>
+        <v>32</v>
       </c>
       <c r="AI5">
         <v>60</v>
@@ -1776,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="AK5">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL5">
         <v>9.199999999999999</v>
       </c>
       <c r="AM5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN5">
         <v>15.5</v>
@@ -1791,7 +1686,7 @@
         <v>23</v>
       </c>
       <c r="AP5">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="AQ5">
         <v>70</v>
@@ -1800,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="AS5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT5">
         <v>18</v>
@@ -1809,31 +1704,31 @@
         <v>25</v>
       </c>
       <c r="AV5">
-        <v>4.7</v>
+        <v>28</v>
       </c>
       <c r="AW5">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AX5">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AY5">
         <v>980</v>
       </c>
       <c r="AZ5">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="BA5">
         <v>16.5</v>
       </c>
       <c r="BB5">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="BC5">
         <v>60</v>
       </c>
       <c r="BD5">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1880,22 +1775,22 @@
         <v>113</v>
       </c>
       <c r="F6">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G6">
         <v>1.58</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K6">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L6">
         <v>1.75</v>
@@ -1913,10 +1808,10 @@
         <v>2.26</v>
       </c>
       <c r="Q6">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R6">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S6">
         <v>1.79</v>
@@ -1934,22 +1829,22 @@
         <v>23</v>
       </c>
       <c r="X6">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>980</v>
       </c>
       <c r="Z6">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA6">
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC6">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6">
         <v>8.4</v>
@@ -1964,7 +1859,7 @@
         <v>34</v>
       </c>
       <c r="AH6">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -1988,7 +1883,7 @@
         <v>32</v>
       </c>
       <c r="AP6">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AQ6">
         <v>980</v>
@@ -2006,19 +1901,19 @@
         <v>21</v>
       </c>
       <c r="AV6">
-        <v>6.2</v>
+        <v>34</v>
       </c>
       <c r="AW6">
         <v>55</v>
       </c>
       <c r="AX6">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BA6">
         <v>11.5</v>
@@ -2030,7 +1925,7 @@
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2077,7 +1972,7 @@
         <v>114</v>
       </c>
       <c r="F7">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G7">
         <v>2.3</v>
@@ -2086,7 +1981,7 @@
         <v>3.6</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J7">
         <v>3.4</v>
@@ -2110,13 +2005,13 @@
         <v>1.86</v>
       </c>
       <c r="Q7">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T7">
         <v>9.4</v>
@@ -2137,7 +2032,7 @@
         <v>32</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AA7">
         <v>980</v>
@@ -2161,7 +2056,7 @@
         <v>19</v>
       </c>
       <c r="AH7">
-        <v>5.1</v>
+        <v>30</v>
       </c>
       <c r="AI7">
         <v>60</v>
@@ -2185,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="AP7">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AQ7">
         <v>75</v>
@@ -2194,7 +2089,7 @@
         <v>23</v>
       </c>
       <c r="AS7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT7">
         <v>21</v>
@@ -2203,19 +2098,19 @@
         <v>32</v>
       </c>
       <c r="AV7">
-        <v>5.2</v>
+        <v>34</v>
       </c>
       <c r="AW7">
         <v>55</v>
       </c>
       <c r="AX7">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AY7">
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA7">
         <v>24</v>
@@ -2277,97 +2172,97 @@
         <v>2.18</v>
       </c>
       <c r="G8">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H8">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I8">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J8">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K8">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
+        <v>1.75</v>
+      </c>
+      <c r="M8">
         <v>1.87</v>
       </c>
-      <c r="M8">
-        <v>1.97</v>
-      </c>
       <c r="N8">
+        <v>2.16</v>
+      </c>
+      <c r="O8">
+        <v>2.32</v>
+      </c>
+      <c r="P8">
+        <v>1.89</v>
+      </c>
+      <c r="Q8">
         <v>2.02</v>
       </c>
-      <c r="O8">
-        <v>2.14</v>
-      </c>
-      <c r="P8">
-        <v>1.84</v>
-      </c>
-      <c r="Q8">
-        <v>1.94</v>
-      </c>
       <c r="R8">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="S8">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T8">
         <v>10.5</v>
       </c>
       <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+      <c r="W8">
         <v>13</v>
       </c>
-      <c r="V8">
-        <v>12</v>
-      </c>
-      <c r="W8">
-        <v>14.5</v>
-      </c>
       <c r="X8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z8">
-        <v>8.6</v>
+        <v>46</v>
       </c>
       <c r="AA8">
         <v>980</v>
       </c>
       <c r="AB8">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8">
         <v>7</v>
       </c>
       <c r="AE8">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF8">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG8">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AI8">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ8">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK8">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL8">
         <v>10</v>
@@ -2376,55 +2271,55 @@
         <v>11.5</v>
       </c>
       <c r="AN8">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO8">
+        <v>20</v>
+      </c>
+      <c r="AP8">
+        <v>48</v>
+      </c>
+      <c r="AQ8">
+        <v>70</v>
+      </c>
+      <c r="AR8">
+        <v>25</v>
+      </c>
+      <c r="AS8">
+        <v>29</v>
+      </c>
+      <c r="AT8">
+        <v>22</v>
+      </c>
+      <c r="AU8">
+        <v>30</v>
+      </c>
+      <c r="AV8">
+        <v>29</v>
+      </c>
+      <c r="AW8">
+        <v>46</v>
+      </c>
+      <c r="AX8">
+        <v>14</v>
+      </c>
+      <c r="AY8">
+        <v>130</v>
+      </c>
+      <c r="AZ8">
+        <v>18</v>
+      </c>
+      <c r="BA8">
         <v>21</v>
       </c>
-      <c r="AP8">
-        <v>8.4</v>
-      </c>
-      <c r="AQ8">
-        <v>980</v>
-      </c>
-      <c r="AR8">
-        <v>22</v>
-      </c>
-      <c r="AS8">
-        <v>32</v>
-      </c>
-      <c r="AT8">
-        <v>19.5</v>
-      </c>
-      <c r="AU8">
-        <v>27</v>
-      </c>
-      <c r="AV8">
-        <v>8</v>
-      </c>
-      <c r="AW8">
-        <v>44</v>
-      </c>
-      <c r="AX8">
-        <v>9</v>
-      </c>
-      <c r="AY8">
-        <v>980</v>
-      </c>
-      <c r="AZ8">
-        <v>6.4</v>
-      </c>
-      <c r="BA8">
-        <v>19.5</v>
-      </c>
       <c r="BB8">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="BC8">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="BD8">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2471,34 +2366,34 @@
         <v>116</v>
       </c>
       <c r="F9">
+        <v>1.76</v>
+      </c>
+      <c r="G9">
+        <v>1.79</v>
+      </c>
+      <c r="H9">
+        <v>5.5</v>
+      </c>
+      <c r="I9">
+        <v>5.7</v>
+      </c>
+      <c r="J9">
+        <v>3.75</v>
+      </c>
+      <c r="K9">
+        <v>3.9</v>
+      </c>
+      <c r="L9">
         <v>1.78</v>
       </c>
-      <c r="G9">
-        <v>1.82</v>
-      </c>
-      <c r="H9">
-        <v>5.6</v>
-      </c>
-      <c r="I9">
-        <v>5.8</v>
-      </c>
-      <c r="J9">
-        <v>3.65</v>
-      </c>
-      <c r="K9">
-        <v>3.8</v>
-      </c>
-      <c r="L9">
-        <v>1.76</v>
-      </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="N9">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O9">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="P9">
         <v>2.08</v>
@@ -2510,13 +2405,13 @@
         <v>1.84</v>
       </c>
       <c r="S9">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T9">
         <v>10</v>
       </c>
       <c r="U9">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="V9">
         <v>14.5</v>
@@ -2525,7 +2420,7 @@
         <v>16.5</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Y9">
         <v>50</v>
@@ -2594,10 +2489,10 @@
         <v>18.5</v>
       </c>
       <c r="AU9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AW9">
         <v>55</v>
@@ -2609,19 +2504,19 @@
         <v>980</v>
       </c>
       <c r="AZ9">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BA9">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BB9">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BC9">
         <v>980</v>
       </c>
       <c r="BD9">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2671,10 +2566,10 @@
         <v>3.25</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H10">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I10">
         <v>2.4</v>
@@ -2686,28 +2581,28 @@
         <v>3.8</v>
       </c>
       <c r="L10">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="M10">
+        <v>2.16</v>
+      </c>
+      <c r="N10">
+        <v>1.86</v>
+      </c>
+      <c r="O10">
+        <v>2.08</v>
+      </c>
+      <c r="P10">
+        <v>1.74</v>
+      </c>
+      <c r="Q10">
+        <v>1.85</v>
+      </c>
+      <c r="R10">
         <v>2.18</v>
       </c>
-      <c r="N10">
-        <v>1.84</v>
-      </c>
-      <c r="O10">
-        <v>2.1</v>
-      </c>
-      <c r="P10">
-        <v>1.72</v>
-      </c>
-      <c r="Q10">
-        <v>1.87</v>
-      </c>
-      <c r="R10">
-        <v>2.16</v>
-      </c>
       <c r="S10">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T10">
         <v>11.5</v>
@@ -2725,13 +2620,13 @@
         <v>13</v>
       </c>
       <c r="Y10">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z10">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB10">
         <v>11</v>
@@ -2749,13 +2644,13 @@
         <v>9.6</v>
       </c>
       <c r="AG10">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH10">
         <v>19.5</v>
       </c>
       <c r="AI10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ10">
         <v>19</v>
@@ -2776,49 +2671,49 @@
         <v>22</v>
       </c>
       <c r="AP10">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AQ10">
         <v>46</v>
       </c>
       <c r="AR10">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS10">
         <v>70</v>
       </c>
       <c r="AT10">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AU10">
         <v>46</v>
       </c>
       <c r="AV10">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AW10">
         <v>60</v>
       </c>
       <c r="AX10">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AY10">
         <v>980</v>
       </c>
       <c r="AZ10">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA10">
         <v>40</v>
       </c>
       <c r="BB10">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BC10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BE10">
         <v>980</v>
@@ -2865,16 +2760,16 @@
         <v>118</v>
       </c>
       <c r="F11">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G11">
         <v>2.78</v>
       </c>
       <c r="H11">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J11">
         <v>3.3</v>
@@ -2907,7 +2802,7 @@
         <v>2.06</v>
       </c>
       <c r="T11">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="U11">
         <v>10.5</v>
@@ -2925,10 +2820,10 @@
         <v>19</v>
       </c>
       <c r="Z11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA11">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AB11">
         <v>8.4</v>
@@ -2943,13 +2838,13 @@
         <v>7.6</v>
       </c>
       <c r="AF11">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG11">
         <v>13.5</v>
       </c>
       <c r="AH11">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="AI11">
         <v>42</v>
@@ -2973,49 +2868,49 @@
         <v>21</v>
       </c>
       <c r="AP11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AQ11">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AR11">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="AS11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT11">
-        <v>9.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="AU11">
         <v>38</v>
       </c>
       <c r="AV11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AW11">
         <v>60</v>
       </c>
       <c r="AX11">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY11">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BA11">
         <v>36</v>
       </c>
       <c r="BB11">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC11">
         <v>44</v>
       </c>
       <c r="BD11">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3062,25 +2957,25 @@
         <v>119</v>
       </c>
       <c r="F12">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H12">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="I12">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="J12">
         <v>1.71</v>
       </c>
       <c r="K12">
-        <v>330</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M12">
         <v>21</v>
@@ -3089,7 +2984,7 @@
         <v>1.1</v>
       </c>
       <c r="O12">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P12">
         <v>1.1</v>
@@ -3217,8 +3112,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>132</v>
+      <c r="BF12">
+        <v>33122288</v>
       </c>
       <c r="BG12">
         <v>39342259</v>
@@ -3229,17 +3124,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>139</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>146</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>160</v>
+      <c r="BJ12">
+        <v>1.22638944</v>
+      </c>
+      <c r="BK12">
+        <v>1.226389485</v>
+      </c>
+      <c r="BL12">
+        <v>1.226389524</v>
+      </c>
+      <c r="BM12">
+        <v>1.226389449</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3271,13 +3166,13 @@
         <v>3.85</v>
       </c>
       <c r="J13">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>3.75</v>
       </c>
       <c r="L13">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="M13">
         <v>1.8</v>
@@ -3286,136 +3181,136 @@
         <v>2.26</v>
       </c>
       <c r="O13">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="P13">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q13">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R13">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S13">
         <v>2.06</v>
       </c>
       <c r="T13">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="U13">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="V13">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="W13">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="X13">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="Y13">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z13">
-        <v>2.28</v>
+        <v>6</v>
       </c>
       <c r="AA13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB13">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="AC13">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD13">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AE13">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AF13">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="AG13">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>2.26</v>
+        <v>5.9</v>
       </c>
       <c r="AI13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="AK13">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL13">
-        <v>2.24</v>
+        <v>4.4</v>
       </c>
       <c r="AM13">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO13">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="AQ13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR13">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="AS13">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AT13">
-        <v>2.38</v>
+        <v>5.6</v>
       </c>
       <c r="AU13">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AV13">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="AW13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX13">
-        <v>2.64</v>
+        <v>6.4</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="BA13">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="BB13">
-        <v>2.16</v>
+        <v>4.8</v>
       </c>
       <c r="BC13">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD13">
-        <v>2.68</v>
+        <v>6.6</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>133</v>
+      <c r="BF13">
+        <v>33121596</v>
       </c>
       <c r="BG13">
         <v>46783501</v>
@@ -3426,17 +3321,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>140</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>161</v>
+      <c r="BJ13">
+        <v>1.226378473</v>
+      </c>
+      <c r="BK13">
+        <v>1.226378518</v>
+      </c>
+      <c r="BL13">
+        <v>1.226378557</v>
+      </c>
+      <c r="BM13">
+        <v>1.226378482</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3456,37 +3351,37 @@
         <v>121</v>
       </c>
       <c r="F14">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G14">
         <v>3.95</v>
       </c>
       <c r="H14">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I14">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J14">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K14">
         <v>3.8</v>
       </c>
       <c r="L14">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="M14">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="N14">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="O14">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="P14">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q14">
         <v>1.84</v>
@@ -3495,118 +3390,118 @@
         <v>2.18</v>
       </c>
       <c r="S14">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U14">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="V14">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="W14">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="X14">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="Y14">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z14">
         <v>22</v>
       </c>
       <c r="AA14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB14">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AC14">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AD14">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="AE14">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF14">
         <v>10</v>
       </c>
       <c r="AG14">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AH14">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AI14">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AJ14">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="AK14">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL14">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM14">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AO14">
         <v>19.5</v>
       </c>
       <c r="AP14">
-        <v>30</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ14">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AR14">
-        <v>4.6</v>
+        <v>10</v>
       </c>
       <c r="AS14">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AT14">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AU14">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AV14">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW14">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX14">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="AY14">
         <v>110</v>
       </c>
       <c r="AZ14">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BA14">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BB14">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="BC14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD14">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -3653,37 +3548,37 @@
         <v>122</v>
       </c>
       <c r="F15">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G15">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="I15">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="L15">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>2.36</v>
       </c>
       <c r="N15">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="O15">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="P15">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q15">
         <v>1000</v>
@@ -3695,97 +3590,97 @@
         <v>1000</v>
       </c>
       <c r="T15">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="U15">
         <v>1000</v>
       </c>
       <c r="V15">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="W15">
         <v>1000</v>
       </c>
       <c r="X15">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="Y15">
         <v>1000</v>
       </c>
       <c r="Z15">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="AA15">
         <v>1000</v>
       </c>
       <c r="AB15">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="AC15">
         <v>1000</v>
       </c>
       <c r="AD15">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="AE15">
         <v>1000</v>
       </c>
       <c r="AF15">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="AG15">
         <v>1000</v>
       </c>
       <c r="AH15">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AI15">
         <v>1000</v>
       </c>
       <c r="AJ15">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="AK15">
         <v>1000</v>
       </c>
       <c r="AL15">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="AM15">
         <v>1000</v>
       </c>
       <c r="AN15">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AO15">
         <v>1000</v>
       </c>
       <c r="AP15">
-        <v>14</v>
+        <v>1.01</v>
       </c>
       <c r="AQ15">
         <v>1000</v>
       </c>
       <c r="AR15">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="AS15">
         <v>1000</v>
       </c>
       <c r="AT15">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="AU15">
         <v>1000</v>
       </c>
       <c r="AV15">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AW15">
         <v>1000</v>
       </c>
       <c r="AX15">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY15">
         <v>1000</v>
@@ -3808,8 +3703,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>134</v>
+      <c r="BF15">
+        <v>33122671</v>
       </c>
       <c r="BG15">
         <v>2608900</v>
@@ -3820,17 +3715,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>141</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>155</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>162</v>
+      <c r="BJ15">
+        <v>1.226394715</v>
+      </c>
+      <c r="BK15">
+        <v>1.22639476</v>
+      </c>
+      <c r="BL15">
+        <v>1.226394799</v>
+      </c>
+      <c r="BM15">
+        <v>1.226394724</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -3964,7 +3859,7 @@
         <v>80</v>
       </c>
       <c r="AR16">
-        <v>20</v>
+        <v>5.3</v>
       </c>
       <c r="AS16">
         <v>34</v>
@@ -4047,7 +3942,7 @@
         <v>124</v>
       </c>
       <c r="F17">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="G17">
         <v>1.82</v>
@@ -4062,31 +3957,31 @@
         <v>3.25</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L17">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>3.95</v>
+      </c>
+      <c r="P17">
+        <v>1.92</v>
+      </c>
+      <c r="Q17">
         <v>11</v>
-      </c>
-      <c r="N17">
-        <v>1.33</v>
-      </c>
-      <c r="O17">
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <v>1.11</v>
-      </c>
-      <c r="Q17">
-        <v>10.5</v>
       </c>
       <c r="R17">
         <v>1.11</v>
       </c>
       <c r="S17">
-        <v>10.5</v>
+        <v>2.08</v>
       </c>
       <c r="T17">
         <v>1.49</v>
@@ -4173,7 +4068,7 @@
         <v>1000</v>
       </c>
       <c r="AV17">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AW17">
         <v>1000</v>
@@ -4185,13 +4080,13 @@
         <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BA17">
         <v>1000</v>
       </c>
       <c r="BB17">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BC17">
         <v>1000</v>
@@ -4202,8 +4097,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>135</v>
+      <c r="BF17">
+        <v>33121972</v>
       </c>
       <c r="BG17">
         <v>3738659</v>
@@ -4214,17 +4109,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>163</v>
+      <c r="BJ17">
+        <v>1.226383437</v>
+      </c>
+      <c r="BK17">
+        <v>1.226383482</v>
+      </c>
+      <c r="BL17">
+        <v>1.226383521</v>
+      </c>
+      <c r="BM17">
+        <v>1.226383446</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4286,7 +4181,7 @@
         <v>1.8</v>
       </c>
       <c r="T18">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>7.8</v>
@@ -4358,7 +4253,7 @@
         <v>95</v>
       </c>
       <c r="AR18">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AS18">
         <v>50</v>
@@ -4379,13 +4274,13 @@
         <v>15</v>
       </c>
       <c r="AY18">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AZ18">
         <v>12.5</v>
       </c>
       <c r="BA18">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB18">
         <v>13</v>
@@ -4394,7 +4289,7 @@
         <v>980</v>
       </c>
       <c r="BD18">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="BE18">
         <v>1000</v>
@@ -4441,37 +4336,37 @@
         <v>126</v>
       </c>
       <c r="F19">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="G19">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="I19">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J19">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="K19">
-        <v>950</v>
+        <v>320</v>
       </c>
       <c r="L19">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="O19">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="P19">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4480,124 +4375,124 @@
         <v>1.1</v>
       </c>
       <c r="S19">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="T19">
-        <v>1.49</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U19">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="V19">
-        <v>2.84</v>
+        <v>16.5</v>
       </c>
       <c r="W19">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="X19">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="Y19">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AA19">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AB19">
-        <v>2.62</v>
+        <v>5.2</v>
       </c>
       <c r="AC19">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD19">
-        <v>2.68</v>
+        <v>7.4</v>
       </c>
       <c r="AE19">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF19">
-        <v>3.95</v>
+        <v>18.5</v>
       </c>
       <c r="AG19">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH19">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AI19">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AJ19">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AK19">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL19">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="AM19">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN19">
-        <v>5.3</v>
+        <v>14.5</v>
       </c>
       <c r="AO19">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AP19">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AQ19">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AR19">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="AS19">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AT19">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AU19">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV19">
-        <v>6.6</v>
+        <v>18.5</v>
       </c>
       <c r="AW19">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AX19">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="AY19">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AZ19">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BA19">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="BB19">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BC19">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="BD19">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>136</v>
+      <c r="BF19">
+        <v>33121772</v>
       </c>
       <c r="BG19">
         <v>893608</v>
@@ -4608,17 +4503,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>143</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>164</v>
+      <c r="BJ19">
+        <v>1.226381364</v>
+      </c>
+      <c r="BK19">
+        <v>1.226381409</v>
+      </c>
+      <c r="BL19">
+        <v>1.226381448</v>
+      </c>
+      <c r="BM19">
+        <v>1.226381373</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4638,10 +4533,10 @@
         <v>127</v>
       </c>
       <c r="F20">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G20">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="H20">
         <v>1.04</v>
@@ -4841,7 +4736,7 @@
         <v>1.48</v>
       </c>
       <c r="H21">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I21">
         <v>9.6</v>
@@ -4850,13 +4745,13 @@
         <v>4.7</v>
       </c>
       <c r="K21">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L21">
         <v>2.26</v>
       </c>
       <c r="M21">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="N21">
         <v>1.6</v>
@@ -4865,7 +4760,7 @@
         <v>1.79</v>
       </c>
       <c r="P21">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -4874,7 +4769,7 @@
         <v>1.91</v>
       </c>
       <c r="S21">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T21">
         <v>16</v>
@@ -4889,7 +4784,7 @@
         <v>38</v>
       </c>
       <c r="X21">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y21">
         <v>90</v>
@@ -4904,7 +4799,7 @@
         <v>7.4</v>
       </c>
       <c r="AC21">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD21">
         <v>9</v>
@@ -4919,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="AH21">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AI21">
         <v>140</v>
@@ -4973,7 +4868,7 @@
         <v>150</v>
       </c>
       <c r="AZ21">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="BA21">
         <v>7</v>
@@ -4985,7 +4880,7 @@
         <v>150</v>
       </c>
       <c r="BD21">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -5032,43 +4927,43 @@
         <v>129</v>
       </c>
       <c r="F22">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H22">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I22">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J22">
         <v>3.1</v>
       </c>
       <c r="K22">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M22">
         <v>1.64</v>
       </c>
       <c r="N22">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="P22">
         <v>2.14</v>
       </c>
       <c r="Q22">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R22">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S22">
         <v>1.88</v>
@@ -5095,7 +4990,7 @@
         <v>9.6</v>
       </c>
       <c r="AA22">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB22">
         <v>7.8</v>
@@ -5229,49 +5124,49 @@
         <v>130</v>
       </c>
       <c r="F23">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="G23">
         <v>2.4</v>
       </c>
       <c r="H23">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="K23">
-        <v>330</v>
+        <v>950</v>
       </c>
       <c r="L23">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>2.04</v>
+        <v>1.46</v>
       </c>
       <c r="O23">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="P23">
-        <v>1.87</v>
+        <v>1.1</v>
       </c>
       <c r="Q23">
-        <v>2.48</v>
+        <v>11</v>
       </c>
       <c r="R23">
         <v>1.68</v>
       </c>
       <c r="S23">
-        <v>2.14</v>
+        <v>11</v>
       </c>
       <c r="T23">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="U23">
         <v>980</v>
@@ -5384,8 +5279,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>137</v>
+      <c r="BF23">
+        <v>33122379</v>
       </c>
       <c r="BG23">
         <v>712865</v>
@@ -5396,17 +5291,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>151</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>165</v>
+      <c r="BJ23">
+        <v>1.226391148</v>
+      </c>
+      <c r="BK23">
+        <v>1.226391193</v>
+      </c>
+      <c r="BL23">
+        <v>1.226391232</v>
+      </c>
+      <c r="BM23">
+        <v>1.226391157</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5426,13 +5321,13 @@
         <v>131</v>
       </c>
       <c r="F24">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G24">
         <v>3.65</v>
       </c>
       <c r="H24">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I24">
         <v>2.74</v>
@@ -5441,19 +5336,19 @@
         <v>2.8</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L24">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M24">
-        <v>1.82</v>
+        <v>3.45</v>
       </c>
       <c r="N24">
-        <v>2.22</v>
+        <v>1.41</v>
       </c>
       <c r="O24">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="P24">
         <v>1.1</v>
@@ -5474,25 +5369,25 @@
         <v>1000</v>
       </c>
       <c r="V24">
-        <v>1.14</v>
+        <v>2.74</v>
       </c>
       <c r="W24">
         <v>1000</v>
       </c>
       <c r="X24">
-        <v>1.13</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>1000</v>
       </c>
       <c r="Z24">
-        <v>1.13</v>
+        <v>3.5</v>
       </c>
       <c r="AA24">
         <v>1000</v>
       </c>
       <c r="AB24">
-        <v>1.13</v>
+        <v>2.86</v>
       </c>
       <c r="AC24">
         <v>1000</v>
@@ -5504,61 +5399,61 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF24">
-        <v>1.13</v>
+        <v>3.7</v>
       </c>
       <c r="AG24">
         <v>1000</v>
       </c>
       <c r="AH24">
-        <v>1.13</v>
+        <v>8.6</v>
       </c>
       <c r="AI24">
         <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>1.13</v>
+        <v>3.45</v>
       </c>
       <c r="AK24">
         <v>1000</v>
       </c>
       <c r="AL24">
-        <v>1.13</v>
+        <v>3.35</v>
       </c>
       <c r="AM24">
         <v>1000</v>
       </c>
       <c r="AN24">
-        <v>1.13</v>
+        <v>4.4</v>
       </c>
       <c r="AO24">
         <v>1000</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>7</v>
       </c>
       <c r="AQ24">
         <v>1000</v>
       </c>
       <c r="AR24">
-        <v>1.13</v>
+        <v>4.9</v>
       </c>
       <c r="AS24">
         <v>1000</v>
       </c>
       <c r="AT24">
-        <v>1.13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU24">
         <v>1000</v>
       </c>
       <c r="AV24">
-        <v>1.13</v>
+        <v>12</v>
       </c>
       <c r="AW24">
         <v>1000</v>
       </c>
       <c r="AX24">
-        <v>1.13</v>
+        <v>7.6</v>
       </c>
       <c r="AY24">
         <v>1000</v>
@@ -5576,13 +5471,13 @@
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>138</v>
+      <c r="BF24">
+        <v>33122382</v>
       </c>
       <c r="BG24">
         <v>4129326</v>
@@ -5593,17 +5488,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>145</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>152</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>166</v>
+      <c r="BJ24">
+        <v>1.226391058</v>
+      </c>
+      <c r="BK24">
+        <v>1.226391103</v>
+      </c>
+      <c r="BL24">
+        <v>1.226391142</v>
+      </c>
+      <c r="BM24">
+        <v>1.226391067</v>
       </c>
     </row>
   </sheetData>
